--- a/database/SorthPort.xlsx
+++ b/database/SorthPort.xlsx
@@ -60,105 +60,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -174,7 +84,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,6 +172,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -203,18 +196,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,37 +227,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +257,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +287,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,55 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,19 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,31 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,36 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -519,6 +489,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -533,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,11 +561,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,14 +1073,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V281"/>
+  <dimension ref="A1:V282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P284" sqref="P284"/>
+      <selection pane="bottomRight" activeCell="J282" sqref="J282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13018,7 +13018,7 @@
         <v>17.8</v>
       </c>
       <c r="D275" s="4">
-        <f t="shared" ref="D275:D280" si="0">D274+B275-C275</f>
+        <f t="shared" ref="D275:D281" si="0">D274+B275-C275</f>
         <v>98.4</v>
       </c>
       <c r="E275">
@@ -13312,7 +13312,7 @@
         <v>16</v>
       </c>
       <c r="D281" s="4">
-        <f>D280+B281-C281</f>
+        <f t="shared" si="0"/>
         <v>69.8</v>
       </c>
       <c r="E281">
@@ -13350,6 +13350,47 @@
       </c>
       <c r="U281" s="3">
         <v>2189</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21">
+      <c r="A282" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B282" s="2">
+        <v>26.8</v>
+      </c>
+      <c r="C282" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="D282" s="4">
+        <f>D281+B282-C282</f>
+        <v>80.9</v>
+      </c>
+      <c r="E282">
+        <v>6</v>
+      </c>
+      <c r="F282">
+        <v>6.5</v>
+      </c>
+      <c r="G282">
+        <f>G281+E282-F282</f>
+        <v>41.5</v>
+      </c>
+      <c r="K282">
+        <v>5</v>
+      </c>
+      <c r="L282">
+        <v>1.7</v>
+      </c>
+      <c r="M282">
+        <f>M281+K282-L282</f>
+        <v>15</v>
+      </c>
+      <c r="T282" s="2">
+        <v>2352</v>
+      </c>
+      <c r="U282" s="3">
+        <v>2450</v>
       </c>
     </row>
   </sheetData>

--- a/database/SorthPort.xlsx
+++ b/database/SorthPort.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,8 +60,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -75,7 +75,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -83,7 +113,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -98,30 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,23 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,17 +157,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,13 +197,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -211,10 +204,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,13 +227,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,42 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,6 +270,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +353,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,73 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +474,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,7 +483,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,13 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,21 +529,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,16 +556,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,14 +1073,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V282"/>
+  <dimension ref="A1:V300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B256" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J282" sqref="J282"/>
+      <selection pane="bottomRight" activeCell="M308" sqref="M308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -13018,7 +13018,7 @@
         <v>17.8</v>
       </c>
       <c r="D275" s="4">
-        <f t="shared" ref="D275:D281" si="0">D274+B275-C275</f>
+        <f t="shared" ref="D275:D296" si="0">D274+B275-C275</f>
         <v>98.4</v>
       </c>
       <c r="E275">
@@ -13055,7 +13055,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:22">
       <c r="A276" s="1">
         <v>43574</v>
       </c>
@@ -13096,14 +13096,26 @@
       <c r="M276">
         <v>15.8</v>
       </c>
+      <c r="Q276">
+        <v>1</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <v>1</v>
+      </c>
       <c r="T276" s="2">
         <v>1989</v>
       </c>
       <c r="U276" s="3">
         <v>2068</v>
       </c>
-    </row>
-    <row r="277" spans="1:21">
+      <c r="V276" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="1">
         <v>43581</v>
       </c>
@@ -13144,14 +13156,26 @@
       <c r="M277">
         <v>15.1</v>
       </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>1</v>
+      </c>
       <c r="T277" s="2">
         <v>1949</v>
       </c>
       <c r="U277" s="3">
         <v>2146</v>
       </c>
-    </row>
-    <row r="278" spans="1:21">
+      <c r="V277" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="1">
         <v>43588</v>
       </c>
@@ -13192,14 +13216,26 @@
       <c r="M278">
         <v>12</v>
       </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0</v>
+      </c>
+      <c r="S278">
+        <v>1</v>
+      </c>
       <c r="T278" s="2">
         <v>1969</v>
       </c>
       <c r="U278" s="3">
         <v>2150</v>
       </c>
-    </row>
-    <row r="279" spans="1:21">
+      <c r="V278" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="1">
         <v>43595</v>
       </c>
@@ -13220,7 +13256,7 @@
         <v>6.2</v>
       </c>
       <c r="G279">
-        <f>G278+E279-F279</f>
+        <f t="shared" ref="G279:G296" si="1">G278+E279-F279</f>
         <v>51.5</v>
       </c>
       <c r="H279" s="2">
@@ -13243,14 +13279,26 @@
         <f>M278+K279-L279</f>
         <v>10</v>
       </c>
+      <c r="Q279">
+        <v>4.2</v>
+      </c>
+      <c r="R279">
+        <v>0</v>
+      </c>
+      <c r="S279">
+        <v>5.2</v>
+      </c>
       <c r="T279" s="2">
         <v>1966</v>
       </c>
       <c r="U279" s="8">
         <v>2130</v>
       </c>
-    </row>
-    <row r="280" spans="1:21">
+      <c r="V279" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="1">
         <v>43602</v>
       </c>
@@ -13271,7 +13319,7 @@
         <v>11.1</v>
       </c>
       <c r="G280">
-        <f>G279+E280-F280</f>
+        <f t="shared" si="1"/>
         <v>43.2</v>
       </c>
       <c r="H280" s="2">
@@ -13294,14 +13342,26 @@
         <f>M279+K280-L280</f>
         <v>12.2</v>
       </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <v>5.2</v>
+      </c>
       <c r="T280" s="2">
         <v>2086</v>
       </c>
       <c r="U280" s="3">
         <v>2190</v>
       </c>
-    </row>
-    <row r="281" spans="1:21">
+      <c r="V280" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="1">
         <v>43609</v>
       </c>
@@ -13322,7 +13382,7 @@
         <v>7.9</v>
       </c>
       <c r="G281">
-        <f>G280+E281-F281</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="H281" s="2">
@@ -13345,14 +13405,26 @@
         <f>M280+K281-L281</f>
         <v>11.7</v>
       </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>0</v>
+      </c>
+      <c r="S281">
+        <v>5.2</v>
+      </c>
       <c r="T281" s="2">
         <v>2142</v>
       </c>
       <c r="U281" s="3">
         <v>2189</v>
       </c>
-    </row>
-    <row r="282" spans="1:21">
+      <c r="V281" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="1">
         <v>43616</v>
       </c>
@@ -13363,7 +13435,7 @@
         <v>15.7</v>
       </c>
       <c r="D282" s="4">
-        <f>D281+B282-C282</f>
+        <f t="shared" si="0"/>
         <v>80.9</v>
       </c>
       <c r="E282">
@@ -13373,8 +13445,18 @@
         <v>6.5</v>
       </c>
       <c r="G282">
-        <f>G281+E282-F282</f>
+        <f t="shared" si="1"/>
         <v>41.5</v>
+      </c>
+      <c r="H282" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="I282" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="J282" s="4">
+        <f>J281+H282-I282</f>
+        <v>16.9</v>
       </c>
       <c r="K282">
         <v>5</v>
@@ -13386,11 +13468,1247 @@
         <f>M281+K282-L282</f>
         <v>15</v>
       </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>0.5</v>
+      </c>
+      <c r="S282">
+        <v>4.7</v>
+      </c>
       <c r="T282" s="2">
         <v>2352</v>
       </c>
       <c r="U282" s="3">
         <v>2450</v>
+      </c>
+      <c r="V282" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22">
+      <c r="A283" s="1">
+        <v>43622</v>
+      </c>
+      <c r="B283" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="C283" s="3">
+        <v>13</v>
+      </c>
+      <c r="D283" s="4">
+        <f t="shared" si="0"/>
+        <v>76.2</v>
+      </c>
+      <c r="E283">
+        <v>5.3</v>
+      </c>
+      <c r="F283">
+        <v>6</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="1"/>
+        <v>40.8</v>
+      </c>
+      <c r="H283" s="2">
+        <v>0</v>
+      </c>
+      <c r="I283" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J283" s="4">
+        <f>J282+H283-I283</f>
+        <v>13.8</v>
+      </c>
+      <c r="K283">
+        <v>5</v>
+      </c>
+      <c r="L283">
+        <v>1.8</v>
+      </c>
+      <c r="M283">
+        <f>M282+K283-L283</f>
+        <v>18.2</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0.7</v>
+      </c>
+      <c r="S283">
+        <v>4</v>
+      </c>
+      <c r="T283" s="2">
+        <v>2269</v>
+      </c>
+      <c r="U283" s="3">
+        <v>2352</v>
+      </c>
+      <c r="V283" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22">
+      <c r="A284" s="1">
+        <v>43630</v>
+      </c>
+      <c r="B284" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="C284" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="D284" s="4">
+        <f t="shared" si="0"/>
+        <v>93.8</v>
+      </c>
+      <c r="E284">
+        <v>11.5</v>
+      </c>
+      <c r="F284">
+        <v>5.2</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="1"/>
+        <v>47.1</v>
+      </c>
+      <c r="H284" s="2">
+        <v>0</v>
+      </c>
+      <c r="I284" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="J284" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>1.4</v>
+      </c>
+      <c r="M284">
+        <v>16.8</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>0.6</v>
+      </c>
+      <c r="S284">
+        <v>3.4</v>
+      </c>
+      <c r="T284" s="2">
+        <v>2368</v>
+      </c>
+      <c r="U284" s="3">
+        <v>2401</v>
+      </c>
+      <c r="V284" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22">
+      <c r="A285" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B285" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="C285" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="D285" s="4">
+        <f t="shared" si="0"/>
+        <v>89.7</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>9.5</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="1"/>
+        <v>37.6</v>
+      </c>
+      <c r="H285" s="2">
+        <v>3</v>
+      </c>
+      <c r="I285" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="J285" s="4">
+        <f>J284+H285-I285</f>
+        <v>12.1</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>1.5</v>
+      </c>
+      <c r="M285">
+        <f t="shared" ref="M285:M294" si="2">M284+K285-L285</f>
+        <v>15.3</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0.7</v>
+      </c>
+      <c r="S285">
+        <v>2.7</v>
+      </c>
+      <c r="T285" s="2">
+        <v>2416</v>
+      </c>
+      <c r="U285" s="3">
+        <v>2426</v>
+      </c>
+      <c r="V285" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22">
+      <c r="A286" s="1">
+        <v>43644</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="C286" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="D286" s="4">
+        <f t="shared" si="0"/>
+        <v>80.8</v>
+      </c>
+      <c r="E286">
+        <v>5.3</v>
+      </c>
+      <c r="F286">
+        <v>5.8</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="1"/>
+        <v>37.1</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>1.3</v>
+      </c>
+      <c r="M286">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q286">
+        <v>1.5</v>
+      </c>
+      <c r="R286">
+        <v>0.2</v>
+      </c>
+      <c r="S286">
+        <v>4</v>
+      </c>
+      <c r="T286" s="2">
+        <v>2395</v>
+      </c>
+      <c r="U286" s="3">
+        <v>2344</v>
+      </c>
+      <c r="V286" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22">
+      <c r="A287" s="1">
+        <v>43651</v>
+      </c>
+      <c r="B287" s="2">
+        <v>4.6</v>
+      </c>
+      <c r="C287" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="D287" s="4">
+        <f t="shared" si="0"/>
+        <v>74.6</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287">
+        <v>5.4</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="1"/>
+        <v>33.7</v>
+      </c>
+      <c r="H287" s="2">
+        <v>5.1</v>
+      </c>
+      <c r="I287" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J287" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="K287">
+        <v>1.8</v>
+      </c>
+      <c r="L287">
+        <v>1.6</v>
+      </c>
+      <c r="M287">
+        <f t="shared" si="2"/>
+        <v>14.2</v>
+      </c>
+      <c r="N287" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="O287" s="3">
+        <v>0</v>
+      </c>
+      <c r="P287" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0.4</v>
+      </c>
+      <c r="S287">
+        <f t="shared" ref="S287:S294" si="3">S286+Q287-R287</f>
+        <v>3.6</v>
+      </c>
+      <c r="T287" s="2">
+        <v>2389</v>
+      </c>
+      <c r="U287" s="3">
+        <v>2278</v>
+      </c>
+      <c r="V287" s="4">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22">
+      <c r="A288" s="1">
+        <v>43658</v>
+      </c>
+      <c r="B288" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C288" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D288" s="4">
+        <f t="shared" si="0"/>
+        <v>64.1</v>
+      </c>
+      <c r="E288" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="F288" s="3">
+        <v>8.3</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="H288" s="2">
+        <v>3</v>
+      </c>
+      <c r="I288" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J288" s="4">
+        <f t="shared" ref="J288:J296" si="4">J287+H288-I288</f>
+        <v>9</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>2.1</v>
+      </c>
+      <c r="M288">
+        <f t="shared" si="2"/>
+        <v>12.1</v>
+      </c>
+      <c r="N288" s="2">
+        <v>0</v>
+      </c>
+      <c r="O288" s="3">
+        <v>0</v>
+      </c>
+      <c r="P288" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0.6</v>
+      </c>
+      <c r="S288">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="T288" s="2">
+        <v>2452</v>
+      </c>
+      <c r="U288" s="3">
+        <v>2240</v>
+      </c>
+      <c r="V288" s="4">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22">
+      <c r="A289" s="1">
+        <v>43665</v>
+      </c>
+      <c r="B289" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C289" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="D289" s="4">
+        <f t="shared" si="0"/>
+        <v>55.9</v>
+      </c>
+      <c r="E289">
+        <v>5.3</v>
+      </c>
+      <c r="F289">
+        <v>7.1</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="1"/>
+        <v>29.4</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0</v>
+      </c>
+      <c r="I289" s="3">
+        <v>2.3</v>
+      </c>
+      <c r="J289" s="4">
+        <f t="shared" si="4"/>
+        <v>6.7</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>2.6</v>
+      </c>
+      <c r="M289">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+      <c r="N289" s="2">
+        <v>0</v>
+      </c>
+      <c r="O289" s="3">
+        <v>0</v>
+      </c>
+      <c r="P289" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>0.5</v>
+      </c>
+      <c r="S289">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="T289" s="2">
+        <v>2379</v>
+      </c>
+      <c r="U289" s="3">
+        <v>2278</v>
+      </c>
+      <c r="V289" s="4">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22">
+      <c r="A290" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B290" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="C290" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="D290" s="4">
+        <f t="shared" si="0"/>
+        <v>43.3</v>
+      </c>
+      <c r="E290">
+        <v>3.5</v>
+      </c>
+      <c r="F290">
+        <v>5.8</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+      <c r="H290" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="I290" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="J290" s="4">
+        <f t="shared" si="4"/>
+        <v>7.3</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>2.9</v>
+      </c>
+      <c r="M290">
+        <f t="shared" si="2"/>
+        <v>6.6</v>
+      </c>
+      <c r="N290" s="2">
+        <v>6</v>
+      </c>
+      <c r="O290" s="3">
+        <v>0</v>
+      </c>
+      <c r="P290" s="4">
+        <f>P289+N290-O290</f>
+        <v>11.9</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>0.9</v>
+      </c>
+      <c r="S290">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="T290" s="2">
+        <v>2387</v>
+      </c>
+      <c r="U290" s="3">
+        <v>2449</v>
+      </c>
+      <c r="V290" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22">
+      <c r="A291" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B291" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="C291" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D291" s="4">
+        <f t="shared" si="0"/>
+        <v>35.4</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>5.1</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="H291" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="I291" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="J291" s="4">
+        <f t="shared" si="4"/>
+        <v>6.1</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>2.6</v>
+      </c>
+      <c r="M291">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N291" s="2">
+        <v>0</v>
+      </c>
+      <c r="O291" s="3">
+        <v>0</v>
+      </c>
+      <c r="P291" s="4">
+        <f>P290+N291-O291</f>
+        <v>11.9</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0.4</v>
+      </c>
+      <c r="S291">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="T291" s="2">
+        <v>2315</v>
+      </c>
+      <c r="U291" s="3">
+        <v>2381</v>
+      </c>
+      <c r="V291" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22">
+      <c r="A292" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B292" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="C292" s="3">
+        <v>19.9</v>
+      </c>
+      <c r="D292" s="4">
+        <f t="shared" si="0"/>
+        <v>22.4</v>
+      </c>
+      <c r="E292">
+        <v>4</v>
+      </c>
+      <c r="F292">
+        <v>5.8</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="1"/>
+        <v>21.2</v>
+      </c>
+      <c r="H292" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="I292" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="J292" s="4">
+        <f t="shared" si="4"/>
+        <v>13.2</v>
+      </c>
+      <c r="K292">
+        <v>5.3</v>
+      </c>
+      <c r="L292">
+        <v>2.2</v>
+      </c>
+      <c r="M292">
+        <f t="shared" si="2"/>
+        <v>7.1</v>
+      </c>
+      <c r="N292" s="2">
+        <v>0</v>
+      </c>
+      <c r="O292" s="3">
+        <v>0</v>
+      </c>
+      <c r="P292" s="4">
+        <f>P291+N292-O292</f>
+        <v>11.9</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0.5</v>
+      </c>
+      <c r="S292">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="T292" s="2">
+        <v>2366</v>
+      </c>
+      <c r="U292" s="3">
+        <v>2421</v>
+      </c>
+      <c r="V292" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22">
+      <c r="A293" s="1">
+        <v>43693</v>
+      </c>
+      <c r="B293" s="2">
+        <v>5</v>
+      </c>
+      <c r="C293" s="3">
+        <v>16.4</v>
+      </c>
+      <c r="D293" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E293">
+        <v>0</v>
+      </c>
+      <c r="F293">
+        <v>5.2</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H293" s="2">
+        <v>0</v>
+      </c>
+      <c r="I293" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="J293" s="4">
+        <f t="shared" si="4"/>
+        <v>8.7</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>2.9</v>
+      </c>
+      <c r="M293">
+        <f t="shared" si="2"/>
+        <v>5.2</v>
+      </c>
+      <c r="N293" s="2">
+        <v>0</v>
+      </c>
+      <c r="O293" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P293" s="4">
+        <f>P292+N293-O293</f>
+        <v>11.6</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0.2</v>
+      </c>
+      <c r="S293">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T293" s="2">
+        <v>2166</v>
+      </c>
+      <c r="U293" s="3">
+        <v>2265</v>
+      </c>
+      <c r="V293" s="4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22">
+      <c r="A294" s="1">
+        <v>43700</v>
+      </c>
+      <c r="B294" s="2">
+        <v>21</v>
+      </c>
+      <c r="C294" s="3">
+        <v>14.9</v>
+      </c>
+      <c r="D294" s="4">
+        <f t="shared" si="0"/>
+        <v>17.1</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H294" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="I294" s="3">
+        <v>4.1</v>
+      </c>
+      <c r="J294" s="4">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="K294">
+        <v>2.2</v>
+      </c>
+      <c r="L294">
+        <v>2.8</v>
+      </c>
+      <c r="M294">
+        <f t="shared" si="2"/>
+        <v>4.6</v>
+      </c>
+      <c r="N294" s="2">
+        <v>5.8</v>
+      </c>
+      <c r="O294" s="3">
+        <v>0</v>
+      </c>
+      <c r="P294" s="4">
+        <f>P293+N294-O294</f>
+        <v>17.4</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0.3</v>
+      </c>
+      <c r="S294">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="T294" s="2">
+        <v>2208</v>
+      </c>
+      <c r="U294" s="3">
+        <v>2278</v>
+      </c>
+      <c r="V294" s="4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21">
+      <c r="A295" s="1">
+        <v>43707</v>
+      </c>
+      <c r="B295" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="C295" s="3">
+        <v>16</v>
+      </c>
+      <c r="D295" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>4.1</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+      <c r="H295" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="I295" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="J295" s="4">
+        <f t="shared" si="4"/>
+        <v>11.1</v>
+      </c>
+      <c r="T295" s="2">
+        <v>2228</v>
+      </c>
+      <c r="U295" s="3">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22">
+      <c r="A296" s="1">
+        <v>43714</v>
+      </c>
+      <c r="B296" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="C296" s="3">
+        <v>20</v>
+      </c>
+      <c r="D296" s="4">
+        <f t="shared" si="0"/>
+        <v>33.6</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="1"/>
+        <v>5.9</v>
+      </c>
+      <c r="H296" s="2">
+        <v>0</v>
+      </c>
+      <c r="I296" s="3">
+        <v>4.6</v>
+      </c>
+      <c r="J296" s="4">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="K296">
+        <v>11</v>
+      </c>
+      <c r="L296">
+        <v>2.6</v>
+      </c>
+      <c r="M296">
+        <v>10.7</v>
+      </c>
+      <c r="N296" s="2">
+        <v>0</v>
+      </c>
+      <c r="O296" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="P296" s="4">
+        <v>16.1</v>
+      </c>
+      <c r="Q296">
+        <v>6.6</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>26.8</v>
+      </c>
+      <c r="T296" s="2">
+        <v>2067</v>
+      </c>
+      <c r="U296" s="3">
+        <v>2224</v>
+      </c>
+      <c r="V296" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22">
+      <c r="A297" s="1">
+        <v>43728</v>
+      </c>
+      <c r="B297" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="C297" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="D297" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>1.5</v>
+      </c>
+      <c r="G297">
+        <v>2.5</v>
+      </c>
+      <c r="H297" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="I297" s="3">
+        <v>4</v>
+      </c>
+      <c r="J297" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>3</v>
+      </c>
+      <c r="M297">
+        <v>4.5</v>
+      </c>
+      <c r="N297" s="2">
+        <v>0</v>
+      </c>
+      <c r="O297" s="3">
+        <v>1</v>
+      </c>
+      <c r="P297" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="Q297">
+        <v>11.6</v>
+      </c>
+      <c r="R297">
+        <v>3.9</v>
+      </c>
+      <c r="S297">
+        <v>45.7</v>
+      </c>
+      <c r="T297" s="2">
+        <v>2231</v>
+      </c>
+      <c r="U297" s="3">
+        <v>2282</v>
+      </c>
+      <c r="V297" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22">
+      <c r="A298" s="1">
+        <v>43735</v>
+      </c>
+      <c r="B298" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="C298" s="3">
+        <v>19.7</v>
+      </c>
+      <c r="D298" s="4">
+        <f>D297+B298-C298</f>
+        <v>26.8</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>1.7</v>
+      </c>
+      <c r="G298">
+        <f>G297+E298-F298</f>
+        <v>0.8</v>
+      </c>
+      <c r="H298" s="2">
+        <v>0</v>
+      </c>
+      <c r="I298" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="J298" s="4">
+        <f>J297+H298-I298</f>
+        <v>8.2</v>
+      </c>
+      <c r="K298">
+        <v>6.7</v>
+      </c>
+      <c r="L298">
+        <v>1.6</v>
+      </c>
+      <c r="M298">
+        <f>M297+K298-L298</f>
+        <v>9.6</v>
+      </c>
+      <c r="N298" s="2">
+        <v>0</v>
+      </c>
+      <c r="O298" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P298" s="4">
+        <f>P297+N298-O298</f>
+        <v>13.7</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>8.7</v>
+      </c>
+      <c r="S298">
+        <f>S297+Q298-R298</f>
+        <v>37</v>
+      </c>
+      <c r="T298" s="2">
+        <v>2229</v>
+      </c>
+      <c r="U298" s="3">
+        <v>2318</v>
+      </c>
+      <c r="V298" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22">
+      <c r="A299" s="1">
+        <v>43749</v>
+      </c>
+      <c r="B299" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="C299" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="D299" s="4">
+        <v>27.1</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0.3</v>
+      </c>
+      <c r="G299">
+        <v>0.1</v>
+      </c>
+      <c r="H299" s="2">
+        <v>0</v>
+      </c>
+      <c r="I299" s="3">
+        <v>5.9</v>
+      </c>
+      <c r="J299" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="K299">
+        <v>8.2</v>
+      </c>
+      <c r="L299">
+        <v>1.6</v>
+      </c>
+      <c r="M299">
+        <v>13</v>
+      </c>
+      <c r="N299" s="2">
+        <v>0</v>
+      </c>
+      <c r="O299" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="P299" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q299">
+        <v>6.6</v>
+      </c>
+      <c r="R299">
+        <v>3.3</v>
+      </c>
+      <c r="S299">
+        <v>45.3</v>
+      </c>
+      <c r="T299" s="2">
+        <v>2259</v>
+      </c>
+      <c r="U299" s="3">
+        <v>2401</v>
+      </c>
+      <c r="V299" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22">
+      <c r="A300" s="1">
+        <v>43756</v>
+      </c>
+      <c r="B300" s="2">
+        <v>24</v>
+      </c>
+      <c r="C300" s="3">
+        <v>15</v>
+      </c>
+      <c r="D300" s="4">
+        <f>D299+B300-C300</f>
+        <v>36.1</v>
+      </c>
+      <c r="E300">
+        <v>5.8</v>
+      </c>
+      <c r="F300">
+        <v>0.1</v>
+      </c>
+      <c r="G300">
+        <f>G299+E300-F300</f>
+        <v>5.8</v>
+      </c>
+      <c r="H300" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="I300" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="J300" s="4">
+        <f>J299+H300-I300</f>
+        <v>12.3</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>1.8</v>
+      </c>
+      <c r="M300">
+        <f>M299+K300-L300</f>
+        <v>11.2</v>
+      </c>
+      <c r="N300" s="2">
+        <v>0</v>
+      </c>
+      <c r="O300" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P300" s="4">
+        <f>P299+N300-O300</f>
+        <v>10.6</v>
+      </c>
+      <c r="Q300">
+        <v>6.2</v>
+      </c>
+      <c r="R300">
+        <v>6.4</v>
+      </c>
+      <c r="S300">
+        <f>S299+Q300-R300</f>
+        <v>45.1</v>
+      </c>
+      <c r="T300" s="2">
+        <v>2346</v>
+      </c>
+      <c r="U300" s="3">
+        <v>2423</v>
+      </c>
+      <c r="V300" s="4">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>

--- a/database/SorthPort.xlsx
+++ b/database/SorthPort.xlsx
@@ -61,8 +61,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -71,6 +71,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,14 +107,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +122,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,15 +144,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,48 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,23 +196,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,7 +227,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,25 +293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,37 +311,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,6 +341,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,43 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,24 +470,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -499,6 +481,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +524,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,27 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,14 +1073,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V300"/>
+  <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M308" sqref="M308"/>
+      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -14711,6 +14711,230 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="301" spans="1:22">
+      <c r="A301" s="1">
+        <f>A300+7</f>
+        <v>43763</v>
+      </c>
+      <c r="B301" s="2">
+        <v>0</v>
+      </c>
+      <c r="C301" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="D301" s="4">
+        <f>D300+B301-C301</f>
+        <v>22</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <f>G300+E301-F301</f>
+        <v>5.8</v>
+      </c>
+      <c r="H301" s="2">
+        <v>0</v>
+      </c>
+      <c r="I301" s="3">
+        <v>5</v>
+      </c>
+      <c r="J301" s="4">
+        <v>8.2</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>2.8</v>
+      </c>
+      <c r="M301">
+        <f>M300+K301-L301</f>
+        <v>8.4</v>
+      </c>
+      <c r="N301" s="2">
+        <v>0</v>
+      </c>
+      <c r="O301" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="P301" s="4">
+        <f>P300+N301-O301</f>
+        <v>9</v>
+      </c>
+      <c r="Q301">
+        <v>6.6</v>
+      </c>
+      <c r="R301">
+        <v>5.4</v>
+      </c>
+      <c r="S301">
+        <f>S300+Q301-R301</f>
+        <v>46.3</v>
+      </c>
+      <c r="T301" s="2">
+        <v>2289</v>
+      </c>
+      <c r="U301" s="3">
+        <v>2401</v>
+      </c>
+      <c r="V301" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22">
+      <c r="A302" s="1">
+        <f>A301+7</f>
+        <v>43770</v>
+      </c>
+      <c r="B302" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="C302" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="D302" s="4">
+        <f>D301+B302-C302</f>
+        <v>25.9</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0.8</v>
+      </c>
+      <c r="G302">
+        <f>G301+E302-F302</f>
+        <v>5</v>
+      </c>
+      <c r="H302" s="2">
+        <v>0</v>
+      </c>
+      <c r="I302" s="3">
+        <v>5.1</v>
+      </c>
+      <c r="J302" s="4">
+        <f>J301+H302-I302</f>
+        <v>3.1</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>2.7</v>
+      </c>
+      <c r="M302">
+        <f>M301+K302-L302</f>
+        <v>5.7</v>
+      </c>
+      <c r="N302" s="2">
+        <v>0</v>
+      </c>
+      <c r="O302" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P302" s="4">
+        <f>P301+N302-O302</f>
+        <v>8.1</v>
+      </c>
+      <c r="Q302">
+        <v>3</v>
+      </c>
+      <c r="R302">
+        <v>5.4</v>
+      </c>
+      <c r="S302">
+        <f>S301+Q302-R302</f>
+        <v>43.9</v>
+      </c>
+      <c r="T302" s="2">
+        <v>2303</v>
+      </c>
+      <c r="U302" s="3">
+        <v>2392</v>
+      </c>
+      <c r="V302" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22">
+      <c r="A303" s="1">
+        <f>A302+7</f>
+        <v>43777</v>
+      </c>
+      <c r="B303" s="2">
+        <v>13</v>
+      </c>
+      <c r="C303" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="D303" s="4">
+        <f>D302+B303-C303</f>
+        <v>24.7</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>0.4</v>
+      </c>
+      <c r="G303">
+        <f>G302+E303-F303</f>
+        <v>4.6</v>
+      </c>
+      <c r="H303" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="I303" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="J303" s="4">
+        <f>J302+H303-I303</f>
+        <v>8.1</v>
+      </c>
+      <c r="K303">
+        <v>2.2</v>
+      </c>
+      <c r="L303">
+        <v>1.9</v>
+      </c>
+      <c r="M303">
+        <f>M302+K303-L303</f>
+        <v>6</v>
+      </c>
+      <c r="N303" s="2">
+        <v>0</v>
+      </c>
+      <c r="O303" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="P303" s="4">
+        <f>P302+N303-O303</f>
+        <v>6.8</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>5.1</v>
+      </c>
+      <c r="S303">
+        <f>S302+Q303-R303</f>
+        <v>38.8</v>
+      </c>
+      <c r="T303" s="2">
+        <v>2243</v>
+      </c>
+      <c r="U303" s="3">
+        <v>2472</v>
+      </c>
+      <c r="V303" s="4">
+        <v>2020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/database/SorthPort.xlsx
+++ b/database/SorthPort.xlsx
@@ -1,20 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>XiaZaiMa.COM</author>
+  </authors>
+  <commentList>
+    <comment ref="V2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>XiaZaiMa.COM:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+法麦、乌麦主要做饲料替代，澳麦主要做啤酒</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>周度</t>
   </si>
@@ -54,18 +95,19 @@
   <si>
     <t>美国高粱</t>
   </si>
+  <si>
+    <t>进口大麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,345 +116,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -469,253 +211,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -725,62 +225,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -829,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -864,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,23 +527,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D279" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I309" sqref="I309"/>
+      <selection pane="bottomRight" activeCell="A311" sqref="A311:E311"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1095,12 +554,12 @@
     <col min="14" max="14" width="9" style="2"/>
     <col min="15" max="15" width="9" style="3"/>
     <col min="16" max="16" width="9" style="4"/>
-    <col min="20" max="20" width="12.5" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="11" customWidth="1"/>
     <col min="21" max="21" width="9" style="3"/>
     <col min="22" max="22" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,11 +587,11 @@
       <c r="Q1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="5"/>
+      <c r="T1" s="10"/>
       <c r="U1" s="6"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1190,17 +649,17 @@
       <c r="S2" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="U2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="V2" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>41642</v>
       </c>
@@ -1217,7 +676,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>41649</v>
       </c>
@@ -1240,7 +699,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>41656</v>
       </c>
@@ -1263,15 +722,15 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>41663</v>
       </c>
       <c r="B6" s="2">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C6" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D6" s="4">
         <v>63.3</v>
@@ -1283,10 +742,10 @@
         <v>2.7</v>
       </c>
       <c r="G6">
-        <v>37.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>41680</v>
       </c>
@@ -1309,7 +768,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>41684</v>
       </c>
@@ -1332,7 +791,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>41691</v>
       </c>
@@ -1355,7 +814,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>41698</v>
       </c>
@@ -1372,21 +831,21 @@
         <v>11.6</v>
       </c>
       <c r="F10">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G10">
         <v>41.8</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>41705</v>
       </c>
       <c r="B11" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C11" s="3">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D11" s="4">
         <v>42.9</v>
@@ -1398,10 +857,10 @@
         <v>7.5</v>
       </c>
       <c r="G11">
-        <v>34.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>41712</v>
       </c>
@@ -1409,7 +868,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D12" s="4">
         <v>51.8</v>
@@ -1424,7 +883,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>41719</v>
       </c>
@@ -1441,13 +900,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G13">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>41726</v>
       </c>
@@ -1470,12 +929,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>41733</v>
       </c>
       <c r="B15" s="2">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C15" s="3">
         <v>14.3</v>
@@ -1487,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G15">
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>41740</v>
       </c>
@@ -1516,7 +975,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>41747</v>
       </c>
@@ -1539,7 +998,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>41754</v>
       </c>
@@ -1553,16 +1012,16 @@
         <v>32</v>
       </c>
       <c r="E18">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F18">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G18">
         <v>6.3</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>41761</v>
       </c>
@@ -1570,7 +1029,7 @@
         <v>23.9</v>
       </c>
       <c r="C19" s="3">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="D19" s="4">
         <v>37</v>
@@ -1582,10 +1041,10 @@
         <v>2.1</v>
       </c>
       <c r="G19">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>41768</v>
       </c>
@@ -1608,7 +1067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>41775</v>
       </c>
@@ -1616,7 +1075,7 @@
         <v>22.5</v>
       </c>
       <c r="C21" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D21" s="4">
         <v>51.9</v>
@@ -1631,7 +1090,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>41782</v>
       </c>
@@ -1651,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>41789</v>
       </c>
@@ -1677,7 +1136,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>41796</v>
       </c>
@@ -1700,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>41803</v>
       </c>
@@ -1720,10 +1179,10 @@
         <v>5.4</v>
       </c>
       <c r="G25">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>41810</v>
       </c>
@@ -1746,7 +1205,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>41816</v>
       </c>
@@ -1769,7 +1228,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>41823</v>
       </c>
@@ -1792,15 +1251,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>41831</v>
       </c>
       <c r="B29" s="2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C29" s="3">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D29" s="4">
         <v>44.2</v>
@@ -1815,7 +1274,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>41838</v>
       </c>
@@ -1838,7 +1297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>41845</v>
       </c>
@@ -1852,12 +1311,12 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>41852</v>
       </c>
       <c r="B32" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C32" s="3">
         <v>18.8</v>
@@ -1866,12 +1325,12 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>41859</v>
       </c>
       <c r="B33" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C33" s="3">
         <v>17.3</v>
@@ -1880,7 +1339,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>41866</v>
       </c>
@@ -1891,10 +1350,10 @@
         <v>13.5</v>
       </c>
       <c r="D34" s="4">
-        <v>34.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>34.700000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>41873</v>
       </c>
@@ -1902,13 +1361,13 @@
         <v>10.6</v>
       </c>
       <c r="C35" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D35" s="4">
         <v>27.4</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>41880</v>
       </c>
@@ -1922,7 +1381,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>41887</v>
       </c>
@@ -1930,13 +1389,13 @@
         <v>10.7</v>
       </c>
       <c r="C37" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D37" s="4">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>41894</v>
       </c>
@@ -1950,7 +1409,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>41901</v>
       </c>
@@ -1964,7 +1423,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>41908</v>
       </c>
@@ -1978,21 +1437,21 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>41915</v>
       </c>
       <c r="B41" s="2">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="C41" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D41" s="4">
         <v>30.2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41922</v>
       </c>
@@ -2015,7 +1474,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41929</v>
       </c>
@@ -2038,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>41936</v>
       </c>
@@ -2055,13 +1514,13 @@
         <v>2.6</v>
       </c>
       <c r="F44">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G44">
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>41943</v>
       </c>
@@ -2081,10 +1540,10 @@
         <v>1.3</v>
       </c>
       <c r="G45">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>41950</v>
       </c>
@@ -2107,7 +1566,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>41957</v>
       </c>
@@ -2130,7 +1589,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>41964</v>
       </c>
@@ -2153,7 +1612,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>41971</v>
       </c>
@@ -2161,7 +1620,7 @@
         <v>27.4</v>
       </c>
       <c r="C49" s="3">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="D49" s="4">
         <v>28.3</v>
@@ -2173,10 +1632,10 @@
         <v>3.9</v>
       </c>
       <c r="G49">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>41978</v>
       </c>
@@ -2184,7 +1643,7 @@
         <v>34.9</v>
       </c>
       <c r="C50" s="3">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="D50" s="4">
         <v>46.3</v>
@@ -2196,10 +1655,10 @@
         <v>5.7</v>
       </c>
       <c r="G50">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>41985</v>
       </c>
@@ -2222,7 +1681,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>41992</v>
       </c>
@@ -2245,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>41999</v>
       </c>
@@ -2259,7 +1718,7 @@
         <v>65.8</v>
       </c>
       <c r="E53">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F53">
         <v>10.7</v>
@@ -2268,7 +1727,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>42006</v>
       </c>
@@ -2282,7 +1741,7 @@
         <v>53</v>
       </c>
       <c r="E54">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F54">
         <v>9.4</v>
@@ -2291,7 +1750,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>42013</v>
       </c>
@@ -2314,7 +1773,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>42020</v>
       </c>
@@ -2322,13 +1781,13 @@
         <v>12</v>
       </c>
       <c r="C56" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D56" s="4">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E56">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F56">
         <v>2.9</v>
@@ -2337,7 +1796,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>42027</v>
       </c>
@@ -2348,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="D57" s="4">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E57">
         <v>6</v>
@@ -2360,7 +1819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>42034</v>
       </c>
@@ -2377,13 +1836,13 @@
         <v>2.8</v>
       </c>
       <c r="F58">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G58">
         <v>11.9</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>42041</v>
       </c>
@@ -2400,13 +1859,13 @@
         <v>9.6</v>
       </c>
       <c r="F59">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G59">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>42048</v>
       </c>
@@ -2429,12 +1888,12 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>42055</v>
       </c>
       <c r="B61" s="2">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C61" s="3">
         <v>5</v>
@@ -2452,7 +1911,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>42061</v>
       </c>
@@ -2469,13 +1928,13 @@
         <v>5.2</v>
       </c>
       <c r="F62">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G62">
         <v>22.8</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>42069</v>
       </c>
@@ -2498,7 +1957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>42076</v>
       </c>
@@ -2521,12 +1980,12 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>42083</v>
       </c>
       <c r="B65" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C65" s="3">
         <v>10.6</v>
@@ -2544,7 +2003,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>42090</v>
       </c>
@@ -2555,7 +2014,7 @@
         <v>12.6</v>
       </c>
       <c r="D66" s="4">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2567,7 +2026,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>42097</v>
       </c>
@@ -2590,7 +2049,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>42104</v>
       </c>
@@ -2613,7 +2072,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>42111</v>
       </c>
@@ -2624,7 +2083,7 @@
         <v>9.6</v>
       </c>
       <c r="D69" s="4">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2636,7 +2095,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>42118</v>
       </c>
@@ -2659,7 +2118,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>42125</v>
       </c>
@@ -2682,7 +2141,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>42132</v>
       </c>
@@ -2699,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G72">
         <v>11.1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>42139</v>
       </c>
@@ -2728,7 +2187,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>42144</v>
       </c>
@@ -2739,7 +2198,7 @@
         <v>7.4</v>
       </c>
       <c r="D74" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2760,12 +2219,12 @@
         <v>52.2</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>42153</v>
       </c>
       <c r="B75" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C75" s="3">
         <v>7.4</v>
@@ -2780,7 +2239,7 @@
         <v>1.3</v>
       </c>
       <c r="G75">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="N75" s="2">
         <v>2.8</v>
@@ -2792,27 +2251,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>42163</v>
       </c>
       <c r="B76" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C76" s="3">
         <v>7.4</v>
       </c>
       <c r="D76" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.200000000000003</v>
+        <v>0.20000000000000301</v>
       </c>
       <c r="G76">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="N76" s="2">
         <v>18.2</v>
@@ -2824,18 +2283,18 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>42167</v>
       </c>
       <c r="B77" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C77" s="3">
         <v>5.9</v>
       </c>
       <c r="D77" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E77">
         <v>9.1</v>
@@ -2847,7 +2306,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>42174</v>
       </c>
@@ -2864,7 +2323,7 @@
         <v>10.8</v>
       </c>
       <c r="F78">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G78">
         <v>27.7</v>
@@ -2888,7 +2347,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>42181</v>
       </c>
@@ -2905,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G79">
         <v>23.1</v>
@@ -2929,7 +2388,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>42188</v>
       </c>
@@ -2970,7 +2429,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>42195</v>
       </c>
@@ -3011,7 +2470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>42202</v>
       </c>
@@ -3025,7 +2484,7 @@
         <v>3.4</v>
       </c>
       <c r="E82">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F82">
         <v>9.1</v>
@@ -3046,13 +2505,13 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S82">
-        <v>4.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>42209</v>
       </c>
@@ -3087,13 +2546,13 @@
         <v>13.6</v>
       </c>
       <c r="R83">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S83">
         <v>13.8</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>42216</v>
       </c>
@@ -3131,10 +2590,10 @@
         <v>4.3</v>
       </c>
       <c r="S84">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>42223</v>
       </c>
@@ -3175,7 +2634,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>42230</v>
       </c>
@@ -3216,7 +2675,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>42237</v>
       </c>
@@ -3227,13 +2686,13 @@
         <v>6.3</v>
       </c>
       <c r="D87" s="4">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G87">
         <v>23.2</v>
@@ -3254,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="S87">
-        <v>9.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>42244</v>
       </c>
@@ -3265,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="C88" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D88" s="4">
         <v>12.2</v>
@@ -3286,7 +2745,7 @@
         <v>7.9</v>
       </c>
       <c r="P88" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Q88">
         <v>5.7</v>
@@ -3298,7 +2757,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>42253</v>
       </c>
@@ -3306,7 +2765,7 @@
         <v>13.9</v>
       </c>
       <c r="C89" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D89" s="4">
         <v>21.2</v>
@@ -3330,7 +2789,7 @@
         <v>25.9</v>
       </c>
       <c r="Q89">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R89">
         <v>8.6</v>
@@ -3339,7 +2798,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>42258</v>
       </c>
@@ -3380,7 +2839,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>42265</v>
       </c>
@@ -3406,7 +2865,7 @@
         <v>5.5</v>
       </c>
       <c r="O91" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P91" s="4">
         <v>23.4</v>
@@ -3418,10 +2877,10 @@
         <v>6.4</v>
       </c>
       <c r="S91">
-        <v>34.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>42272</v>
       </c>
@@ -3453,7 +2912,7 @@
         <v>24.2</v>
       </c>
       <c r="Q92">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R92">
         <v>9.1</v>
@@ -3462,7 +2921,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>42279</v>
       </c>
@@ -3482,7 +2941,7 @@
         <v>1.9</v>
       </c>
       <c r="G93">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N93" s="2">
         <v>6</v>
@@ -3503,7 +2962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>42286</v>
       </c>
@@ -3526,7 +2985,7 @@
         <v>2.6</v>
       </c>
       <c r="N94" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O94" s="3">
         <v>6.1</v>
@@ -3538,13 +2997,13 @@
         <v>3</v>
       </c>
       <c r="R94">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S94">
         <v>31.9</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>42293</v>
       </c>
@@ -3585,7 +3044,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>42300</v>
       </c>
@@ -3608,16 +3067,16 @@
         <v>0.5</v>
       </c>
       <c r="N96" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O96" s="3">
         <v>12.2</v>
       </c>
       <c r="P96" s="4">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q96">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R96">
         <v>7.2</v>
@@ -3626,7 +3085,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>42307</v>
       </c>
@@ -3667,7 +3126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>42314</v>
       </c>
@@ -3678,7 +3137,7 @@
         <v>14.5</v>
       </c>
       <c r="D98" s="4">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E98">
         <v>0.1</v>
@@ -3696,7 +3155,7 @@
         <v>10.5</v>
       </c>
       <c r="P98" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q98">
         <v>1.4</v>
@@ -3708,7 +3167,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>42321</v>
       </c>
@@ -3749,7 +3208,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>42328</v>
       </c>
@@ -3787,10 +3246,10 @@
         <v>5.6</v>
       </c>
       <c r="S100">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>42335</v>
       </c>
@@ -3831,7 +3290,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>42342</v>
       </c>
@@ -3857,7 +3316,7 @@
         <v>4.8</v>
       </c>
       <c r="O102" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P102" s="4">
         <v>26.7</v>
@@ -3872,7 +3331,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>42349</v>
       </c>
@@ -3913,7 +3372,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>42356</v>
       </c>
@@ -3942,7 +3401,7 @@
         <v>8.5</v>
       </c>
       <c r="P104" s="4">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Q104">
         <v>0</v>
@@ -3954,7 +3413,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>42363</v>
       </c>
@@ -3995,7 +3454,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>42370</v>
       </c>
@@ -4006,7 +3465,7 @@
         <v>10.6</v>
       </c>
       <c r="D106" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4036,7 +3495,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>42377</v>
       </c>
@@ -4047,7 +3506,7 @@
         <v>7.3</v>
       </c>
       <c r="D107" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4077,7 +3536,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>42384</v>
       </c>
@@ -4088,7 +3547,7 @@
         <v>11.5</v>
       </c>
       <c r="D108" s="4">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4103,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P108" s="4">
         <v>43.8</v>
@@ -4118,7 +3577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>42391</v>
       </c>
@@ -4141,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="2">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O109" s="3">
         <v>12.7</v>
@@ -4159,7 +3618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>42398</v>
       </c>
@@ -4170,7 +3629,7 @@
         <v>12.5</v>
       </c>
       <c r="D110" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4188,7 +3647,7 @@
         <v>9</v>
       </c>
       <c r="P110" s="4">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Q110">
         <v>0.5</v>
@@ -4200,7 +3659,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>42405</v>
       </c>
@@ -4241,7 +3700,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>42412</v>
       </c>
@@ -4264,7 +3723,7 @@
         <v>5.2</v>
       </c>
       <c r="N112" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O112" s="3">
         <v>2</v>
@@ -4282,7 +3741,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>42419</v>
       </c>
@@ -4323,7 +3782,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>42425</v>
       </c>
@@ -4364,7 +3823,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>42433</v>
       </c>
@@ -4384,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N115" s="2">
         <v>6</v>
@@ -4405,7 +3864,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>42440</v>
       </c>
@@ -4416,7 +3875,7 @@
         <v>6.6</v>
       </c>
       <c r="D116" s="4">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="E116">
         <v>6.3</v>
@@ -4446,7 +3905,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>42447</v>
       </c>
@@ -4454,7 +3913,7 @@
         <v>7.5</v>
       </c>
       <c r="C117" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D117" s="4">
         <v>31.5</v>
@@ -4475,7 +3934,7 @@
         <v>7.7</v>
       </c>
       <c r="P117" s="4">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="Q117">
         <v>0</v>
@@ -4487,7 +3946,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>42454</v>
       </c>
@@ -4516,7 +3975,7 @@
         <v>9.4</v>
       </c>
       <c r="P118" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Q118">
         <v>0</v>
@@ -4528,7 +3987,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>42461</v>
       </c>
@@ -4569,7 +4028,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>42468</v>
       </c>
@@ -4583,13 +4042,13 @@
         <v>9.9</v>
       </c>
       <c r="E120">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F120">
         <v>3</v>
       </c>
       <c r="G120">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="N120" s="2">
         <v>6</v>
@@ -4604,13 +4063,13 @@
         <v>5</v>
       </c>
       <c r="R120">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S120">
         <v>8.4</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>42475</v>
       </c>
@@ -4639,7 +4098,7 @@
         <v>8</v>
       </c>
       <c r="P121" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Q121">
         <v>6.3</v>
@@ -4651,7 +4110,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>42482</v>
       </c>
@@ -4668,10 +4127,10 @@
         <v>5.2</v>
       </c>
       <c r="F122">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G122">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="N122" s="2">
         <v>10.8</v>
@@ -4680,7 +4139,7 @@
         <v>10.3</v>
       </c>
       <c r="P122" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="Q122">
         <v>0</v>
@@ -4692,12 +4151,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>42489</v>
       </c>
       <c r="B123" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C123" s="3">
         <v>5.6</v>
@@ -4712,13 +4171,13 @@
         <v>5.7</v>
       </c>
       <c r="G123">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="N123" s="2">
         <v>5</v>
       </c>
       <c r="O123" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P123" s="4">
         <v>30</v>
@@ -4733,7 +4192,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>42496</v>
       </c>
@@ -4756,7 +4215,7 @@
         <v>46.4</v>
       </c>
       <c r="N124" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O124" s="3">
         <v>9.5</v>
@@ -4774,7 +4233,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>42503</v>
       </c>
@@ -4794,7 +4253,7 @@
         <v>8.1</v>
       </c>
       <c r="G125">
-        <v>38.3</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="N125" s="2">
         <v>13</v>
@@ -4815,7 +4274,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>42510</v>
       </c>
@@ -4835,7 +4294,7 @@
         <v>8.5</v>
       </c>
       <c r="G126">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="N126" s="2">
         <v>6</v>
@@ -4856,7 +4315,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>42517</v>
       </c>
@@ -4882,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="O127" s="3">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="P127" s="4">
         <v>27.9</v>
@@ -4897,7 +4356,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>42524</v>
       </c>
@@ -4905,7 +4364,7 @@
         <v>11.5</v>
       </c>
       <c r="C128" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D128" s="4">
         <v>11.8</v>
@@ -4917,7 +4376,7 @@
         <v>8.1</v>
       </c>
       <c r="G128">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="N128" s="2">
         <v>5.7</v>
@@ -4938,12 +4397,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>42531</v>
       </c>
       <c r="B129" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C129" s="3">
         <v>10</v>
@@ -4964,7 +4423,7 @@
         <v>5</v>
       </c>
       <c r="O129" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P129" s="4">
         <v>24.9</v>
@@ -4979,7 +4438,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>42538</v>
       </c>
@@ -4990,7 +4449,7 @@
         <v>5.6</v>
       </c>
       <c r="D130" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -5020,7 +4479,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>42545</v>
       </c>
@@ -5058,15 +4517,15 @@
         <v>0.7</v>
       </c>
       <c r="S131">
-        <v>9.8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>42552</v>
       </c>
       <c r="B132" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C132" s="3">
         <v>10.8</v>
@@ -5078,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G132">
         <v>7.7</v>
@@ -5102,7 +4561,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>42559</v>
       </c>
@@ -5119,19 +4578,19 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G133">
         <v>5.5</v>
       </c>
       <c r="N133" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O133" s="3">
         <v>8.1</v>
       </c>
       <c r="P133" s="4">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="Q133">
         <v>10.8</v>
@@ -5143,7 +4602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>42566</v>
       </c>
@@ -5178,13 +4637,13 @@
         <v>3.2</v>
       </c>
       <c r="R134">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S134">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>42573</v>
       </c>
@@ -5213,7 +4672,7 @@
         <v>10.3</v>
       </c>
       <c r="P135" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Q135">
         <v>0</v>
@@ -5225,7 +4684,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>42580</v>
       </c>
@@ -5266,7 +4725,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>42587</v>
       </c>
@@ -5286,13 +4745,13 @@
         <v>0.3</v>
       </c>
       <c r="G137">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N137" s="2">
         <v>0</v>
       </c>
       <c r="O137" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P137" s="4">
         <v>22.5</v>
@@ -5307,7 +4766,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>42594</v>
       </c>
@@ -5315,7 +4774,7 @@
         <v>13.2</v>
       </c>
       <c r="C138" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D138" s="4">
         <v>25.1</v>
@@ -5333,7 +4792,7 @@
         <v>5.5</v>
       </c>
       <c r="O138" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="P138" s="4">
         <v>17.8</v>
@@ -5348,7 +4807,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>42601</v>
       </c>
@@ -5389,7 +4848,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>42608</v>
       </c>
@@ -5397,10 +4856,10 @@
         <v>13.3</v>
       </c>
       <c r="C140" s="3">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D140" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5412,13 +4871,13 @@
         <v>0.5</v>
       </c>
       <c r="N140" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O140" s="3">
         <v>6.6</v>
       </c>
       <c r="P140" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Q140">
         <v>1.7</v>
@@ -5430,7 +4889,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>42615</v>
       </c>
@@ -5438,7 +4897,7 @@
         <v>19.3</v>
       </c>
       <c r="C141" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D141" s="4">
         <v>20.8</v>
@@ -5471,7 +4930,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>42622</v>
       </c>
@@ -5482,7 +4941,7 @@
         <v>17</v>
       </c>
       <c r="D142" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5512,7 +4971,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>42629</v>
       </c>
@@ -5523,7 +4982,7 @@
         <v>10.9</v>
       </c>
       <c r="D143" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5553,7 +5012,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>42636</v>
       </c>
@@ -5576,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="N144" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O144" s="3">
         <v>5</v>
@@ -5585,7 +5044,7 @@
         <v>37</v>
       </c>
       <c r="Q144">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R144">
         <v>11</v>
@@ -5594,7 +5053,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>42650</v>
       </c>
@@ -5605,7 +5064,7 @@
         <v>14.6</v>
       </c>
       <c r="D145" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5635,12 +5094,12 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>42657</v>
       </c>
       <c r="B146" s="2">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="C146" s="3">
         <v>17.2</v>
@@ -5676,7 +5135,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>42664</v>
       </c>
@@ -5684,7 +5143,7 @@
         <v>10.8</v>
       </c>
       <c r="C147" s="3">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D147" s="4">
         <v>8.1</v>
@@ -5717,7 +5176,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>42671</v>
       </c>
@@ -5755,21 +5214,21 @@
         <v>7</v>
       </c>
       <c r="S148">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>42678</v>
       </c>
       <c r="B149" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C149" s="3">
         <v>15.6</v>
       </c>
       <c r="D149" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5796,10 +5255,10 @@
         <v>3</v>
       </c>
       <c r="S149">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>42685</v>
       </c>
@@ -5810,7 +5269,7 @@
         <v>19</v>
       </c>
       <c r="D150" s="4">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -5828,7 +5287,7 @@
         <v>14</v>
       </c>
       <c r="P150" s="4">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -5840,12 +5299,12 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>42692</v>
       </c>
       <c r="B151" s="2">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C151" s="3">
         <v>27.8</v>
@@ -5869,7 +5328,7 @@
         <v>7.8</v>
       </c>
       <c r="P151" s="4">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -5881,7 +5340,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>42699</v>
       </c>
@@ -5922,7 +5381,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>42709</v>
       </c>
@@ -5963,7 +5422,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>42716</v>
       </c>
@@ -6004,7 +5463,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>42723</v>
       </c>
@@ -6039,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="R155">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S155">
         <v>7.1</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>42730</v>
       </c>
@@ -6056,7 +5515,7 @@
         <v>35</v>
       </c>
       <c r="D156" s="4">
-        <v>80.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -6086,7 +5545,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>42737</v>
       </c>
@@ -6127,7 +5586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>42744</v>
       </c>
@@ -6156,7 +5615,7 @@
         <v>1.3</v>
       </c>
       <c r="P158" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="Q158">
         <v>7.6</v>
@@ -6168,7 +5627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>42748</v>
       </c>
@@ -6179,7 +5638,7 @@
         <v>41.7</v>
       </c>
       <c r="D159" s="4">
-        <v>78.4</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -6209,7 +5668,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>42755</v>
       </c>
@@ -6232,13 +5691,13 @@
         <v>0</v>
       </c>
       <c r="N160" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O160" s="3">
         <v>5</v>
       </c>
       <c r="P160" s="4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="Q160">
         <v>0</v>
@@ -6250,7 +5709,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>42770</v>
       </c>
@@ -6290,7 +5749,7 @@
       <c r="S161">
         <v>20.7</v>
       </c>
-      <c r="T161" s="2">
+      <c r="T161" s="11">
         <v>1690</v>
       </c>
       <c r="U161" s="3">
@@ -6300,12 +5759,12 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>42776</v>
       </c>
       <c r="B162" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C162" s="3">
         <v>21.5</v>
@@ -6329,7 +5788,7 @@
         <v>10.3</v>
       </c>
       <c r="P162" s="4">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Q162">
         <v>11.1</v>
@@ -6340,7 +5799,7 @@
       <c r="S162">
         <v>30.2</v>
       </c>
-      <c r="T162" s="2">
+      <c r="T162" s="11">
         <v>1717</v>
       </c>
       <c r="U162" s="3">
@@ -6350,7 +5809,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>42783</v>
       </c>
@@ -6376,7 +5835,7 @@
         <v>6</v>
       </c>
       <c r="O163" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P163" s="4">
         <v>40.4</v>
@@ -6390,7 +5849,7 @@
       <c r="S163">
         <v>32.4</v>
       </c>
-      <c r="T163" s="2">
+      <c r="T163" s="11">
         <v>1697</v>
       </c>
       <c r="U163" s="3">
@@ -6400,7 +5859,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>42790</v>
       </c>
@@ -6441,7 +5900,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>42801</v>
       </c>
@@ -6470,18 +5929,18 @@
         <v>10.4</v>
       </c>
       <c r="P165" s="4">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="Q165">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="R165">
         <v>6.2</v>
       </c>
       <c r="S165">
-        <v>35.2</v>
-      </c>
-      <c r="T165" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="T165" s="11">
         <v>1735</v>
       </c>
       <c r="U165" s="3">
@@ -6491,7 +5950,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>42807</v>
       </c>
@@ -6531,7 +5990,7 @@
       <c r="S166">
         <v>30.2</v>
       </c>
-      <c r="T166" s="2">
+      <c r="T166" s="11">
         <v>1688</v>
       </c>
       <c r="U166" s="3">
@@ -6541,7 +6000,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>42814</v>
       </c>
@@ -6564,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="N167" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="O167" s="3">
         <v>6.5</v>
@@ -6582,7 +6041,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>42821</v>
       </c>
@@ -6622,7 +6081,7 @@
       <c r="S168">
         <v>23.3</v>
       </c>
-      <c r="T168" s="2">
+      <c r="T168" s="11">
         <v>1682</v>
       </c>
       <c r="U168" s="3">
@@ -6632,7 +6091,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>42828</v>
       </c>
@@ -6673,7 +6132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>42835</v>
       </c>
@@ -6713,7 +6172,7 @@
       <c r="S170">
         <v>25.4</v>
       </c>
-      <c r="T170" s="2">
+      <c r="T170" s="11">
         <v>1702</v>
       </c>
       <c r="U170" s="3">
@@ -6723,7 +6182,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="171" spans="1:22">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>42842</v>
       </c>
@@ -6761,9 +6220,9 @@
         <v>5.7</v>
       </c>
       <c r="S171">
-        <v>36.2</v>
-      </c>
-      <c r="T171" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="T171" s="11">
         <v>1742</v>
       </c>
       <c r="U171" s="3">
@@ -6773,7 +6232,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>42849</v>
       </c>
@@ -6799,7 +6258,7 @@
         <v>10</v>
       </c>
       <c r="O172" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P172" s="4">
         <v>43</v>
@@ -6813,7 +6272,7 @@
       <c r="S172">
         <v>34.5</v>
       </c>
-      <c r="T172" s="2">
+      <c r="T172" s="11">
         <v>1702</v>
       </c>
       <c r="U172" s="3">
@@ -6823,12 +6282,12 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="173" spans="1:22">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>42858</v>
       </c>
       <c r="B173" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C173" s="3">
         <v>15.8</v>
@@ -6849,21 +6308,21 @@
         <v>5.5</v>
       </c>
       <c r="O173" s="3">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P173" s="4">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="Q173">
         <v>0</v>
       </c>
       <c r="R173">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S173">
         <v>29.9</v>
       </c>
-      <c r="T173" s="2">
+      <c r="T173" s="11">
         <v>1721</v>
       </c>
       <c r="U173" s="3">
@@ -6873,7 +6332,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="174" spans="1:22">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>42863</v>
       </c>
@@ -6899,13 +6358,13 @@
         <v>0</v>
       </c>
       <c r="O174" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P174" s="4">
         <v>31</v>
       </c>
       <c r="Q174">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R174">
         <v>2.4</v>
@@ -6913,7 +6372,7 @@
       <c r="S174">
         <v>32.4</v>
       </c>
-      <c r="T174" s="2">
+      <c r="T174" s="11">
         <v>1711</v>
       </c>
       <c r="U174" s="3">
@@ -6923,7 +6382,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="175" spans="1:22">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>42870</v>
       </c>
@@ -6963,7 +6422,7 @@
       <c r="S175">
         <v>31.6</v>
       </c>
-      <c r="T175" s="2">
+      <c r="T175" s="11">
         <v>1728</v>
       </c>
       <c r="U175" s="3">
@@ -6973,7 +6432,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="176" spans="1:22">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>42877</v>
       </c>
@@ -7013,7 +6472,7 @@
       <c r="S176">
         <v>30.8</v>
       </c>
-      <c r="T176" s="2">
+      <c r="T176" s="11">
         <v>1715</v>
       </c>
       <c r="U176" s="3">
@@ -7023,7 +6482,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="177" spans="1:22">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>42885</v>
       </c>
@@ -7034,7 +6493,7 @@
         <v>12.7</v>
       </c>
       <c r="D177" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -7063,7 +6522,7 @@
       <c r="S177">
         <v>29.1</v>
       </c>
-      <c r="T177" s="2">
+      <c r="T177" s="11">
         <v>1722</v>
       </c>
       <c r="U177" s="3">
@@ -7073,7 +6532,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="178" spans="1:22">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>42891</v>
       </c>
@@ -7084,7 +6543,7 @@
         <v>13.9</v>
       </c>
       <c r="D178" s="4">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -7113,7 +6572,7 @@
       <c r="S178">
         <v>28.4</v>
       </c>
-      <c r="T178" s="2">
+      <c r="T178" s="11">
         <v>1712</v>
       </c>
       <c r="U178" s="3">
@@ -7123,12 +6582,12 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="179" spans="1:22">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>42898</v>
       </c>
       <c r="B179" s="2">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C179" s="3">
         <v>15.8</v>
@@ -7158,12 +6617,12 @@
         <v>5</v>
       </c>
       <c r="R179">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S179">
         <v>28.3</v>
       </c>
-      <c r="T179" s="2">
+      <c r="T179" s="11">
         <v>1756</v>
       </c>
       <c r="U179" s="3">
@@ -7173,15 +6632,15 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="180" spans="1:22">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>42905</v>
       </c>
       <c r="B180" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C180" s="3">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D180" s="4">
         <v>60.2</v>
@@ -7208,12 +6667,12 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S180">
         <v>23.9</v>
       </c>
-      <c r="T180" s="2">
+      <c r="T180" s="11">
         <v>1734</v>
       </c>
       <c r="U180" s="3">
@@ -7223,7 +6682,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="181" spans="1:22">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>42912</v>
       </c>
@@ -7261,9 +6720,9 @@
         <v>4.5</v>
       </c>
       <c r="S181">
-        <v>19.4</v>
-      </c>
-      <c r="T181" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="T181" s="11">
         <v>1707</v>
       </c>
       <c r="U181" s="3">
@@ -7273,7 +6732,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="182" spans="1:22">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>42919</v>
       </c>
@@ -7308,12 +6767,12 @@
         <v>6.4</v>
       </c>
       <c r="R182">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S182">
         <v>21.7</v>
       </c>
-      <c r="T182" s="2">
+      <c r="T182" s="11">
         <v>1692</v>
       </c>
       <c r="U182" s="3">
@@ -7323,7 +6782,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="183" spans="1:22">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>42926</v>
       </c>
@@ -7334,7 +6793,7 @@
         <v>15.4</v>
       </c>
       <c r="D183" s="4">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E183">
         <v>11.4</v>
@@ -7363,7 +6822,7 @@
       <c r="S183">
         <v>15.9</v>
       </c>
-      <c r="T183" s="2">
+      <c r="T183" s="11">
         <v>1771</v>
       </c>
       <c r="U183" s="3">
@@ -7373,7 +6832,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="184" spans="1:22">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>42933</v>
       </c>
@@ -7413,7 +6872,7 @@
       <c r="S184">
         <v>16.3</v>
       </c>
-      <c r="T184" s="2">
+      <c r="T184" s="11">
         <v>1717</v>
       </c>
       <c r="U184" s="3">
@@ -7423,7 +6882,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="185" spans="1:22">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>42941</v>
       </c>
@@ -7458,12 +6917,12 @@
         <v>0</v>
       </c>
       <c r="R185">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S185">
         <v>11.9</v>
       </c>
-      <c r="T185" s="2">
+      <c r="T185" s="11">
         <v>1760</v>
       </c>
       <c r="U185" s="3">
@@ -7473,7 +6932,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="186" spans="1:22">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>42947</v>
       </c>
@@ -7499,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="O186" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P186" s="4">
         <v>19.8</v>
@@ -7508,12 +6967,12 @@
         <v>7.9</v>
       </c>
       <c r="R186">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S186">
         <v>15.2</v>
       </c>
-      <c r="T186" s="2">
+      <c r="T186" s="11">
         <v>1709</v>
       </c>
       <c r="U186" s="3">
@@ -7523,12 +6982,12 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="187" spans="1:22">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>42954</v>
       </c>
       <c r="B187" s="2">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C187" s="3">
         <v>19.7</v>
@@ -7564,7 +7023,7 @@
         <v>26.8</v>
       </c>
       <c r="Q187">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R187">
         <v>1.8</v>
@@ -7572,7 +7031,7 @@
       <c r="S187">
         <v>15.6</v>
       </c>
-      <c r="T187" s="2">
+      <c r="T187" s="11">
         <v>1670</v>
       </c>
       <c r="U187" s="3">
@@ -7582,7 +7041,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="188" spans="1:22">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>42961</v>
       </c>
@@ -7590,7 +7049,7 @@
         <v>24.4</v>
       </c>
       <c r="C188" s="3">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D188" s="4">
         <v>37.4</v>
@@ -7629,9 +7088,9 @@
         <v>4</v>
       </c>
       <c r="S188">
-        <v>17.1</v>
-      </c>
-      <c r="T188" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="T188" s="11">
         <v>1625</v>
       </c>
       <c r="U188" s="3">
@@ -7641,24 +7100,24 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="189" spans="1:22">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>42968</v>
       </c>
       <c r="B189" s="2">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="C189" s="3">
         <v>19.3</v>
       </c>
       <c r="D189" s="4">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E189">
         <v>5.3</v>
       </c>
       <c r="F189">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G189">
         <v>25.7</v>
@@ -7685,12 +7144,12 @@
         <v>1.5</v>
       </c>
       <c r="R189">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S189">
         <v>13.5</v>
       </c>
-      <c r="T189" s="2">
+      <c r="T189" s="11">
         <v>1607</v>
       </c>
       <c r="U189" s="3">
@@ -7700,7 +7159,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="190" spans="1:22">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>42975</v>
       </c>
@@ -7711,7 +7170,7 @@
         <v>17.2</v>
       </c>
       <c r="D190" s="4">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E190">
         <v>20.8</v>
@@ -7749,7 +7208,7 @@
       <c r="S190">
         <v>11</v>
       </c>
-      <c r="T190" s="2">
+      <c r="T190" s="11">
         <v>1643</v>
       </c>
       <c r="U190" s="3">
@@ -7759,7 +7218,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="191" spans="1:22">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>42979</v>
       </c>
@@ -7779,7 +7238,7 @@
         <v>3.3</v>
       </c>
       <c r="G191">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="K191">
         <v>3.2</v>
@@ -7808,7 +7267,7 @@
       <c r="S191">
         <v>13.3</v>
       </c>
-      <c r="T191" s="2">
+      <c r="T191" s="11">
         <v>1631</v>
       </c>
       <c r="U191" s="3">
@@ -7818,7 +7277,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="192" spans="1:22">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>42986</v>
       </c>
@@ -7838,7 +7297,7 @@
         <v>8</v>
       </c>
       <c r="G192">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K192">
         <v>1.3</v>
@@ -7853,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="O192" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P192" s="4">
         <v>17</v>
@@ -7867,7 +7326,7 @@
       <c r="S192">
         <v>22.9</v>
       </c>
-      <c r="T192" s="2">
+      <c r="T192" s="11">
         <v>1604</v>
       </c>
       <c r="U192" s="3">
@@ -7877,7 +7336,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="193" spans="1:22">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>42993</v>
       </c>
@@ -7903,10 +7362,10 @@
         <v>2</v>
       </c>
       <c r="L193">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M193">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N193" s="2">
         <v>12.4</v>
@@ -7921,12 +7380,12 @@
         <v>5.4</v>
       </c>
       <c r="R193">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S193">
         <v>23.9</v>
       </c>
-      <c r="T193" s="2">
+      <c r="T193" s="11">
         <v>1611</v>
       </c>
       <c r="U193" s="3">
@@ -7936,7 +7395,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="194" spans="1:22">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>43000</v>
       </c>
@@ -7944,7 +7403,7 @@
         <v>8.5</v>
       </c>
       <c r="C194" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D194" s="4">
         <v>41.4</v>
@@ -7965,7 +7424,7 @@
         <v>2.5</v>
       </c>
       <c r="M194">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="N194" s="2">
         <v>10.1</v>
@@ -7985,7 +7444,7 @@
       <c r="S194">
         <v>30.8</v>
       </c>
-      <c r="T194" s="2">
+      <c r="T194" s="11">
         <v>1616</v>
       </c>
       <c r="U194" s="3">
@@ -7995,7 +7454,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>43007</v>
       </c>
@@ -8012,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G195">
         <v>15.1</v>
@@ -8030,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="O195" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P195" s="4">
         <v>24.7</v>
@@ -8045,7 +7504,7 @@
         <v>40.9</v>
       </c>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>43014</v>
       </c>
@@ -8056,7 +7515,7 @@
         <v>14.5</v>
       </c>
       <c r="D196" s="4">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -8083,10 +7542,10 @@
         <v>3.9</v>
       </c>
       <c r="P196" s="4">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="Q196">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="R196">
         <v>5.9</v>
@@ -8095,7 +7554,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="197" spans="1:22">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>43021</v>
       </c>
@@ -8124,7 +7583,7 @@
         <v>2.4</v>
       </c>
       <c r="M197">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N197" s="2">
         <v>2.6</v>
@@ -8144,7 +7603,7 @@
       <c r="S197">
         <v>46.4</v>
       </c>
-      <c r="T197" s="2">
+      <c r="T197" s="11">
         <v>1612</v>
       </c>
       <c r="U197" s="3">
@@ -8154,7 +7613,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="198" spans="1:22">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>43028</v>
       </c>
@@ -8165,7 +7624,7 @@
         <v>16.8</v>
       </c>
       <c r="D198" s="4">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8174,7 +7633,7 @@
         <v>3</v>
       </c>
       <c r="G198">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K198">
         <v>1.6</v>
@@ -8189,7 +7648,7 @@
         <v>2.7</v>
       </c>
       <c r="O198" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P198" s="4">
         <v>27.5</v>
@@ -8203,7 +7662,7 @@
       <c r="S198">
         <v>40.9</v>
       </c>
-      <c r="T198" s="2">
+      <c r="T198" s="11">
         <v>1633</v>
       </c>
       <c r="U198" s="3">
@@ -8213,7 +7672,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="199" spans="1:22">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>43035</v>
       </c>
@@ -8248,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="O199" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P199" s="4">
         <v>23.4</v>
@@ -8262,7 +7721,7 @@
       <c r="S199">
         <v>39.1</v>
       </c>
-      <c r="T199" s="2">
+      <c r="T199" s="11">
         <v>1654</v>
       </c>
       <c r="U199" s="3">
@@ -8272,7 +7731,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="200" spans="1:22">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>43042</v>
       </c>
@@ -8283,7 +7742,7 @@
         <v>22.7</v>
       </c>
       <c r="D200" s="4">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -8301,7 +7760,7 @@
         <v>1.7</v>
       </c>
       <c r="M200">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="N200" s="2">
         <v>0</v>
@@ -8310,10 +7769,10 @@
         <v>4.8</v>
       </c>
       <c r="P200" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q200">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="R200">
         <v>7.9</v>
@@ -8321,7 +7780,7 @@
       <c r="S200">
         <v>33.5</v>
       </c>
-      <c r="T200" s="2">
+      <c r="T200" s="11">
         <v>1644</v>
       </c>
       <c r="U200" s="3">
@@ -8331,12 +7790,12 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="201" spans="1:22">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>43049</v>
       </c>
       <c r="B201" s="2">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C201" s="3">
         <v>26.5</v>
@@ -8380,7 +7839,7 @@
       <c r="S201">
         <v>25.8</v>
       </c>
-      <c r="T201" s="2">
+      <c r="T201" s="11">
         <v>1623</v>
       </c>
       <c r="U201" s="3">
@@ -8390,7 +7849,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="202" spans="1:22">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>43056</v>
       </c>
@@ -8416,7 +7875,7 @@
         <v>10.5</v>
       </c>
       <c r="L202">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M202">
         <v>7.6</v>
@@ -8439,7 +7898,7 @@
       <c r="S202">
         <v>27.1</v>
       </c>
-      <c r="T202" s="2">
+      <c r="T202" s="11">
         <v>1569</v>
       </c>
       <c r="U202" s="3">
@@ -8449,7 +7908,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="203" spans="1:22">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>43063</v>
       </c>
@@ -8460,7 +7919,7 @@
         <v>20.2</v>
       </c>
       <c r="D203" s="4">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8478,13 +7937,13 @@
         <v>5.8</v>
       </c>
       <c r="M203">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N203" s="2">
         <v>5</v>
       </c>
       <c r="O203" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P203" s="4">
         <v>21.7</v>
@@ -8498,7 +7957,7 @@
       <c r="S203">
         <v>28.6</v>
       </c>
-      <c r="T203" s="2">
+      <c r="T203" s="11">
         <v>1589</v>
       </c>
       <c r="U203" s="3">
@@ -8508,7 +7967,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="204" spans="1:22">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>43070</v>
       </c>
@@ -8519,7 +7978,7 @@
         <v>26.8</v>
       </c>
       <c r="D204" s="4">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -8534,7 +7993,7 @@
         <v>1.4</v>
       </c>
       <c r="L204">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M204">
         <v>6.6</v>
@@ -8552,12 +8011,12 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S204">
         <v>24</v>
       </c>
-      <c r="T204" s="2">
+      <c r="T204" s="11">
         <v>1565</v>
       </c>
       <c r="U204" s="3">
@@ -8567,7 +8026,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="205" spans="1:22">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>43077</v>
       </c>
@@ -8575,7 +8034,7 @@
         <v>61.4</v>
       </c>
       <c r="C205" s="3">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D205" s="4">
         <v>68</v>
@@ -8605,18 +8064,18 @@
         <v>5.3</v>
       </c>
       <c r="P205" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q205">
         <v>3.6</v>
       </c>
       <c r="R205">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="S205">
         <v>23</v>
       </c>
-      <c r="T205" s="2">
+      <c r="T205" s="11">
         <v>1590</v>
       </c>
       <c r="U205" s="3">
@@ -8626,7 +8085,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>43084</v>
       </c>
@@ -8649,7 +8108,7 @@
         <v>6.6</v>
       </c>
       <c r="K206">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L206">
         <v>6.2</v>
@@ -8661,7 +8120,7 @@
         <v>12</v>
       </c>
       <c r="O206" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P206" s="4">
         <v>26.2</v>
@@ -8675,7 +8134,7 @@
       <c r="S206">
         <v>21.1</v>
       </c>
-      <c r="T206" s="2">
+      <c r="T206" s="11">
         <v>1578</v>
       </c>
       <c r="U206" s="3">
@@ -8685,7 +8144,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="207" spans="1:22">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>43091</v>
       </c>
@@ -8696,7 +8155,7 @@
         <v>33.5</v>
       </c>
       <c r="D207" s="4">
-        <v>78.1</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E207">
         <v>11.2</v>
@@ -8711,7 +8170,7 @@
         <v>6.7</v>
       </c>
       <c r="L207">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M207">
         <v>9.5</v>
@@ -8734,7 +8193,7 @@
       <c r="S207">
         <v>22.1</v>
       </c>
-      <c r="T207" s="2">
+      <c r="T207" s="11">
         <v>1594</v>
       </c>
       <c r="U207" s="3">
@@ -8744,7 +8203,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="208" spans="1:22">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>43098</v>
       </c>
@@ -8752,7 +8211,7 @@
         <v>18.3</v>
       </c>
       <c r="C208" s="3">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="D208" s="4">
         <v>61.2</v>
@@ -8791,9 +8250,9 @@
         <v>3.7</v>
       </c>
       <c r="S208">
-        <v>20.1</v>
-      </c>
-      <c r="T208" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T208" s="11">
         <v>1586</v>
       </c>
       <c r="U208" s="3">
@@ -8803,7 +8262,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="209" spans="1:22">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>43105</v>
       </c>
@@ -8814,7 +8273,7 @@
         <v>24</v>
       </c>
       <c r="D209" s="4">
-        <v>71.6</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="E209">
         <v>6.3</v>
@@ -8852,7 +8311,7 @@
       <c r="S209">
         <v>16.3</v>
       </c>
-      <c r="T209" s="2">
+      <c r="T209" s="11">
         <v>1573</v>
       </c>
       <c r="U209" s="3">
@@ -8862,7 +8321,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="210" spans="1:22">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>43112</v>
       </c>
@@ -8879,7 +8338,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G210">
         <v>24.6</v>
@@ -8911,7 +8370,7 @@
       <c r="S210">
         <v>16.8</v>
       </c>
-      <c r="T210" s="2">
+      <c r="T210" s="11">
         <v>1567</v>
       </c>
       <c r="U210" s="3">
@@ -8921,7 +8380,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="211" spans="1:22">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>43119</v>
       </c>
@@ -8959,7 +8418,7 @@
         <v>5.2</v>
       </c>
       <c r="P211" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -8970,7 +8429,7 @@
       <c r="S211">
         <v>13.6</v>
       </c>
-      <c r="T211" s="2">
+      <c r="T211" s="11">
         <v>1558</v>
       </c>
       <c r="U211" s="3">
@@ -8980,7 +8439,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="212" spans="1:22">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>43126</v>
       </c>
@@ -8997,7 +8456,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G212">
         <v>15.7</v>
@@ -9024,12 +8483,12 @@
         <v>0.4</v>
       </c>
       <c r="R212">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S212">
         <v>9.9</v>
       </c>
-      <c r="T212" s="2">
+      <c r="T212" s="11">
         <v>1552</v>
       </c>
       <c r="U212" s="3">
@@ -9039,7 +8498,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="213" spans="1:22">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>43133</v>
       </c>
@@ -9056,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G213">
         <v>10.8</v>
@@ -9068,7 +8527,7 @@
         <v>3.2</v>
       </c>
       <c r="M213">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="N213" s="2">
         <v>5.7</v>
@@ -9088,7 +8547,7 @@
       <c r="S213">
         <v>6.9</v>
       </c>
-      <c r="T213" s="2">
+      <c r="T213" s="11">
         <v>1558</v>
       </c>
       <c r="U213" s="3">
@@ -9098,7 +8557,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="214" spans="1:22">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>43140</v>
       </c>
@@ -9121,7 +8580,7 @@
         <v>5.8</v>
       </c>
       <c r="H214" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I214" s="3">
         <v>6.3</v>
@@ -9156,7 +8615,7 @@
       <c r="S214">
         <v>2.6</v>
       </c>
-      <c r="T214" s="2">
+      <c r="T214" s="11">
         <v>1582</v>
       </c>
       <c r="U214" s="3">
@@ -9166,7 +8625,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="215" spans="1:22">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>43147</v>
       </c>
@@ -9198,10 +8657,10 @@
         <v>18</v>
       </c>
       <c r="K215">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L215">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M215">
         <v>6.8</v>
@@ -9224,7 +8683,7 @@
       <c r="S215">
         <v>14.8</v>
       </c>
-      <c r="T215" s="2">
+      <c r="T215" s="11">
         <v>1586</v>
       </c>
       <c r="U215" s="3">
@@ -9234,18 +8693,18 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="216" spans="1:22">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>43154</v>
       </c>
       <c r="B216" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C216" s="3">
         <v>3</v>
       </c>
       <c r="D216" s="4">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -9254,7 +8713,7 @@
         <v>0.7</v>
       </c>
       <c r="G216">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H216" s="2">
         <v>11.5</v>
@@ -9272,7 +8731,7 @@
         <v>0.4</v>
       </c>
       <c r="M216">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N216" s="2">
         <v>7</v>
@@ -9292,7 +8751,7 @@
       <c r="S216">
         <v>27</v>
       </c>
-      <c r="T216" s="2">
+      <c r="T216" s="11">
         <v>1591</v>
       </c>
       <c r="U216" s="3">
@@ -9302,7 +8761,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="217" spans="1:22">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>43161</v>
       </c>
@@ -9360,7 +8819,7 @@
       <c r="S217">
         <v>28.1</v>
       </c>
-      <c r="T217" s="2">
+      <c r="T217" s="11">
         <v>1650</v>
       </c>
       <c r="U217" s="3">
@@ -9370,12 +8829,12 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="218" spans="1:22">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>43168</v>
       </c>
       <c r="B218" s="2">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C218" s="3">
         <v>28.6</v>
@@ -9411,13 +8870,13 @@
         <v>7.8</v>
       </c>
       <c r="N218" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O218" s="3">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P218" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Q218">
         <v>5.5</v>
@@ -9428,7 +8887,7 @@
       <c r="S218">
         <v>29.6</v>
       </c>
-      <c r="T218" s="2">
+      <c r="T218" s="11">
         <v>1674</v>
       </c>
       <c r="U218" s="3">
@@ -9438,7 +8897,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="219" spans="1:22">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>43175</v>
       </c>
@@ -9461,7 +8920,7 @@
         <v>0.7</v>
       </c>
       <c r="H219" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I219" s="3">
         <v>6</v>
@@ -9476,13 +8935,13 @@
         <v>4</v>
       </c>
       <c r="M219">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N219" s="2">
         <v>12.8</v>
       </c>
       <c r="O219" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="P219" s="4">
         <v>36.4</v>
@@ -9496,7 +8955,7 @@
       <c r="S219">
         <v>30.3</v>
       </c>
-      <c r="T219" s="2">
+      <c r="T219" s="11">
         <v>1653</v>
       </c>
       <c r="U219" s="3">
@@ -9506,7 +8965,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="220" spans="1:22">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>43182</v>
       </c>
@@ -9514,7 +8973,7 @@
         <v>13.5</v>
       </c>
       <c r="C220" s="3">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D220" s="4">
         <v>49.6</v>
@@ -9553,7 +9012,7 @@
         <v>9.1</v>
       </c>
       <c r="P220" s="4">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="Q220">
         <v>4.5</v>
@@ -9564,7 +9023,7 @@
       <c r="S220">
         <v>28.9</v>
       </c>
-      <c r="T220" s="2">
+      <c r="T220" s="11">
         <v>1617</v>
       </c>
       <c r="U220" s="3">
@@ -9574,7 +9033,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="221" spans="1:22">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>43189</v>
       </c>
@@ -9582,7 +9041,7 @@
         <v>20.3</v>
       </c>
       <c r="C221" s="3">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="D221" s="4">
         <v>41.9</v>
@@ -9600,7 +9059,7 @@
         <v>2.1</v>
       </c>
       <c r="I221" s="3">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J221" s="4">
         <v>7.7</v>
@@ -9618,7 +9077,7 @@
         <v>6.9</v>
       </c>
       <c r="O221" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P221" s="4">
         <v>31.9</v>
@@ -9627,12 +9086,12 @@
         <v>6</v>
       </c>
       <c r="R221">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S221">
         <v>30.8</v>
       </c>
-      <c r="T221" s="2">
+      <c r="T221" s="11">
         <v>1644</v>
       </c>
       <c r="U221" s="3">
@@ -9642,7 +9101,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="222" spans="1:22">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>43196</v>
       </c>
@@ -9674,7 +9133,7 @@
         <v>12.6</v>
       </c>
       <c r="K222">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L222">
         <v>2.5</v>
@@ -9698,9 +9157,9 @@
         <v>4.5</v>
       </c>
       <c r="S222">
-        <v>36.8</v>
-      </c>
-      <c r="T222" s="2">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="T222" s="11">
         <v>1633</v>
       </c>
       <c r="U222" s="3">
@@ -9710,7 +9169,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="223" spans="1:22">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>43203</v>
       </c>
@@ -9754,10 +9213,10 @@
         <v>10</v>
       </c>
       <c r="O223" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P223" s="4">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -9766,9 +9225,9 @@
         <v>4.5</v>
       </c>
       <c r="S223">
-        <v>32.3</v>
-      </c>
-      <c r="T223" s="2">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T223" s="11">
         <v>1633</v>
       </c>
       <c r="U223" s="3">
@@ -9778,15 +9237,15 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="224" spans="1:22">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>43210</v>
       </c>
       <c r="B224" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C224" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D224" s="4">
         <v>57.1</v>
@@ -9810,7 +9269,7 @@
         <v>14.2</v>
       </c>
       <c r="K224">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L224">
         <v>1.7</v>
@@ -9822,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="O224" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P224" s="4">
         <v>24.6</v>
@@ -9836,7 +9295,7 @@
       <c r="S224">
         <v>26.5</v>
       </c>
-      <c r="T224" s="2">
+      <c r="T224" s="11">
         <v>1612</v>
       </c>
       <c r="U224" s="3">
@@ -9846,7 +9305,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>43217</v>
       </c>
@@ -9860,7 +9319,7 @@
         <v>61.3</v>
       </c>
       <c r="E225">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F225">
         <v>1.8</v>
@@ -9869,7 +9328,7 @@
         <v>15.5</v>
       </c>
       <c r="H225" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I225" s="3">
         <v>5.5</v>
@@ -9884,7 +9343,7 @@
         <v>2.4</v>
       </c>
       <c r="M225">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N225" s="2">
         <v>0</v>
@@ -9893,7 +9352,7 @@
         <v>5.7</v>
       </c>
       <c r="P225" s="4">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -9905,18 +9364,18 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="226" spans="1:22">
+    <row r="226" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>43224</v>
       </c>
       <c r="B226" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="C226" s="3">
         <v>15.5</v>
       </c>
       <c r="D226" s="4">
-        <v>65.4</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="E226">
         <v>11.5</v>
@@ -9952,18 +9411,18 @@
         <v>2.8</v>
       </c>
       <c r="P226" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q226">
         <v>5.7</v>
       </c>
       <c r="R226">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S226">
         <v>22.6</v>
       </c>
-      <c r="T226" s="2">
+      <c r="T226" s="11">
         <v>1645</v>
       </c>
       <c r="U226" s="3">
@@ -9973,7 +9432,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="227" spans="1:22">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>43231</v>
       </c>
@@ -10031,7 +9490,7 @@
       <c r="S227">
         <v>18.3</v>
       </c>
-      <c r="T227" s="2">
+      <c r="T227" s="11">
         <v>1623</v>
       </c>
       <c r="U227" s="3">
@@ -10041,7 +9500,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="228" spans="1:22">
+    <row r="228" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>43238</v>
       </c>
@@ -10097,9 +9556,9 @@
         <v>3.2</v>
       </c>
       <c r="S228">
-        <v>20.1</v>
-      </c>
-      <c r="T228" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="T228" s="11">
         <v>1631</v>
       </c>
       <c r="U228" s="3">
@@ -10109,7 +9568,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="229" spans="1:22">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>43245</v>
       </c>
@@ -10138,7 +9597,7 @@
         <v>5</v>
       </c>
       <c r="J229" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="K229">
         <v>5</v>
@@ -10167,7 +9626,7 @@
       <c r="S229">
         <v>21.1</v>
       </c>
-      <c r="T229" s="2">
+      <c r="T229" s="11">
         <v>1656</v>
       </c>
       <c r="U229" s="3">
@@ -10177,7 +9636,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="230" spans="1:22">
+    <row r="230" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>43252</v>
       </c>
@@ -10235,7 +9694,7 @@
       <c r="S230">
         <v>22.8</v>
       </c>
-      <c r="T230" s="2">
+      <c r="T230" s="11">
         <v>1634</v>
       </c>
       <c r="U230" s="3">
@@ -10245,7 +9704,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="231" spans="1:22">
+    <row r="231" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>43259</v>
       </c>
@@ -10256,7 +9715,7 @@
         <v>10.8</v>
       </c>
       <c r="D231" s="4">
-        <v>72.9</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -10265,10 +9724,10 @@
         <v>6.9</v>
       </c>
       <c r="G231">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H231" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I231" s="3">
         <v>5.2</v>
@@ -10289,7 +9748,7 @@
         <v>1.7</v>
       </c>
       <c r="O231" s="3">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P231" s="4">
         <v>34.4</v>
@@ -10303,7 +9762,7 @@
       <c r="S231">
         <v>25.9</v>
       </c>
-      <c r="T231" s="2">
+      <c r="T231" s="11">
         <v>1583</v>
       </c>
       <c r="U231" s="3">
@@ -10313,7 +9772,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="232" spans="1:22">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>43266</v>
       </c>
@@ -10333,7 +9792,7 @@
         <v>5.4</v>
       </c>
       <c r="G232">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H232" s="2">
         <v>1.6</v>
@@ -10342,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="J232" s="4">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K232">
         <v>2.4</v>
@@ -10371,7 +9830,7 @@
       <c r="S232">
         <v>22.1</v>
       </c>
-      <c r="T232" s="2">
+      <c r="T232" s="11">
         <v>1553</v>
       </c>
       <c r="U232" s="3">
@@ -10381,7 +9840,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="233" spans="1:22">
+    <row r="233" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>43273</v>
       </c>
@@ -10395,7 +9854,7 @@
         <v>58.6</v>
       </c>
       <c r="E233">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F233">
         <v>4.7</v>
@@ -10425,7 +9884,7 @@
         <v>4</v>
       </c>
       <c r="O233" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P233" s="4">
         <v>31.3</v>
@@ -10439,7 +9898,7 @@
       <c r="S233">
         <v>17.8</v>
       </c>
-      <c r="T233" s="2">
+      <c r="T233" s="11">
         <v>1547</v>
       </c>
       <c r="U233" s="3">
@@ -10449,7 +9908,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="234" spans="1:22">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>43280</v>
       </c>
@@ -10457,10 +9916,10 @@
         <v>25.2</v>
       </c>
       <c r="C234" s="3">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D234" s="4">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E234">
         <v>3.8</v>
@@ -10507,7 +9966,7 @@
       <c r="S234">
         <v>15.1</v>
       </c>
-      <c r="T234" s="2">
+      <c r="T234" s="11">
         <v>1543</v>
       </c>
       <c r="U234" s="3">
@@ -10517,7 +9976,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="235" spans="1:22">
+    <row r="235" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>43287</v>
       </c>
@@ -10540,19 +9999,19 @@
         <v>26.1</v>
       </c>
       <c r="H235" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I235" s="3">
         <v>5.3</v>
       </c>
       <c r="J235" s="4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K235">
         <v>0</v>
       </c>
       <c r="L235">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M235">
         <v>5.9</v>
@@ -10575,7 +10034,7 @@
       <c r="S235">
         <v>10.9</v>
       </c>
-      <c r="T235" s="2">
+      <c r="T235" s="11">
         <v>1575</v>
       </c>
       <c r="U235" s="3">
@@ -10585,7 +10044,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="236" spans="1:22">
+    <row r="236" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>43294</v>
       </c>
@@ -10593,28 +10052,28 @@
         <v>21.9</v>
       </c>
       <c r="C236" s="3">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D236" s="4">
         <v>64.3</v>
       </c>
       <c r="E236">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F236">
         <v>7.3</v>
       </c>
       <c r="G236">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H236" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I236" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J236" s="4">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K236">
         <v>0</v>
@@ -10623,7 +10082,7 @@
         <v>0.8</v>
       </c>
       <c r="M236">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="N236" s="2">
         <v>0</v>
@@ -10643,7 +10102,7 @@
       <c r="S236">
         <v>18.2</v>
       </c>
-      <c r="T236" s="2">
+      <c r="T236" s="11">
         <v>1565</v>
       </c>
       <c r="U236" s="3">
@@ -10653,15 +10112,15 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="237" spans="1:22">
+    <row r="237" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>43301</v>
       </c>
       <c r="B237" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C237" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D237" s="4">
         <v>55.5</v>
@@ -10673,7 +10132,7 @@
         <v>5.2</v>
       </c>
       <c r="G237">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H237" s="2">
         <v>4.8</v>
@@ -10711,7 +10170,7 @@
       <c r="S237">
         <v>15.3</v>
       </c>
-      <c r="T237" s="2">
+      <c r="T237" s="11">
         <v>1993</v>
       </c>
       <c r="U237" s="3">
@@ -10721,7 +10180,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="238" spans="1:22">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>43308</v>
       </c>
@@ -10729,7 +10188,7 @@
         <v>18</v>
       </c>
       <c r="C238" s="3">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D238" s="4">
         <v>56.4</v>
@@ -10747,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="I238" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J238" s="4">
         <v>11.2</v>
@@ -10759,7 +10218,7 @@
         <v>1.9</v>
       </c>
       <c r="M238">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N238" s="2">
         <v>0</v>
@@ -10779,7 +10238,7 @@
       <c r="S238">
         <v>19.2</v>
       </c>
-      <c r="T238" s="2">
+      <c r="T238" s="11">
         <v>2038</v>
       </c>
       <c r="U238" s="3">
@@ -10789,7 +10248,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="239" spans="1:22">
+    <row r="239" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>43315</v>
       </c>
@@ -10836,7 +10295,7 @@
         <v>3.4</v>
       </c>
       <c r="P239" s="4">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -10845,9 +10304,9 @@
         <v>3.1</v>
       </c>
       <c r="S239">
-        <v>16.1</v>
-      </c>
-      <c r="T239" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T239" s="11">
         <v>2069</v>
       </c>
       <c r="U239" s="3">
@@ -10857,7 +10316,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="240" spans="1:22">
+    <row r="240" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>43322</v>
       </c>
@@ -10892,10 +10351,10 @@
         <v>2.8</v>
       </c>
       <c r="L240">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M240">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N240" s="2">
         <v>0</v>
@@ -10915,7 +10374,7 @@
       <c r="S240">
         <v>13.4</v>
       </c>
-      <c r="T240" s="2">
+      <c r="T240" s="11">
         <v>2079</v>
       </c>
       <c r="U240" s="3">
@@ -10925,7 +10384,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="241" spans="1:22">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>43329</v>
       </c>
@@ -10936,7 +10395,7 @@
         <v>21.5</v>
       </c>
       <c r="D241" s="4">
-        <v>76.1</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="E241">
         <v>0</v>
@@ -10963,7 +10422,7 @@
         <v>1.3</v>
       </c>
       <c r="M241">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N241" s="2">
         <v>0</v>
@@ -10983,7 +10442,7 @@
       <c r="S241">
         <v>10.8</v>
       </c>
-      <c r="T241" s="2">
+      <c r="T241" s="11">
         <v>2079</v>
       </c>
       <c r="U241" s="3">
@@ -10993,18 +10452,18 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="242" spans="1:22">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>43336</v>
       </c>
       <c r="B242" s="2">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C242" s="3">
         <v>25.4</v>
       </c>
       <c r="D242" s="4">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -11019,7 +10478,7 @@
         <v>6.2</v>
       </c>
       <c r="I242" s="3">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J242" s="4">
         <v>19.7</v>
@@ -11051,7 +10510,7 @@
       <c r="S242">
         <v>19.5</v>
       </c>
-      <c r="T242" s="2">
+      <c r="T242" s="11">
         <v>2005</v>
       </c>
       <c r="U242" s="3">
@@ -11061,7 +10520,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="243" spans="1:22">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>43343</v>
       </c>
@@ -11069,7 +10528,7 @@
         <v>25.6</v>
       </c>
       <c r="C243" s="3">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D243" s="4">
         <v>76.3</v>
@@ -11081,7 +10540,7 @@
         <v>0.7</v>
       </c>
       <c r="G243">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H243" s="2">
         <v>6.5</v>
@@ -11119,7 +10578,7 @@
       <c r="S243">
         <v>17.7</v>
       </c>
-      <c r="T243" s="2">
+      <c r="T243" s="11">
         <v>1970</v>
       </c>
       <c r="U243" s="3">
@@ -11129,7 +10588,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="244" spans="1:22">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>43350</v>
       </c>
@@ -11137,10 +10596,10 @@
         <v>33.6</v>
       </c>
       <c r="C244" s="3">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="D244" s="4">
-        <v>77.6</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -11155,7 +10614,7 @@
         <v>3.5</v>
       </c>
       <c r="I244" s="3">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J244" s="4">
         <v>14.5</v>
@@ -11176,7 +10635,7 @@
         <v>1.8</v>
       </c>
       <c r="P244" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q244">
         <v>13.3</v>
@@ -11187,7 +10646,7 @@
       <c r="S244">
         <v>28.2</v>
       </c>
-      <c r="T244" s="2">
+      <c r="T244" s="11">
         <v>2083</v>
       </c>
       <c r="U244" s="3">
@@ -11197,7 +10656,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="245" spans="1:22">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>43357</v>
       </c>
@@ -11205,7 +10664,7 @@
         <v>14.6</v>
       </c>
       <c r="C245" s="3">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="D245" s="4">
         <v>54.5</v>
@@ -11244,7 +10703,7 @@
         <v>1.4</v>
       </c>
       <c r="P245" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q245">
         <v>25.7</v>
@@ -11255,7 +10714,7 @@
       <c r="S245">
         <v>50</v>
       </c>
-      <c r="T245" s="2">
+      <c r="T245" s="11">
         <v>2019</v>
       </c>
       <c r="U245" s="3">
@@ -11265,18 +10724,18 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="246" spans="1:22">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>43364</v>
       </c>
       <c r="B246" s="2">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="C246" s="3">
         <v>19.7</v>
       </c>
       <c r="D246" s="4">
-        <v>75.1</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="E246">
         <v>0</v>
@@ -11300,7 +10759,7 @@
         <v>1.6</v>
       </c>
       <c r="L246">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M246">
         <v>5.5</v>
@@ -11323,7 +10782,7 @@
       <c r="S246">
         <v>47</v>
       </c>
-      <c r="T246" s="2">
+      <c r="T246" s="11">
         <v>2024</v>
       </c>
       <c r="U246" s="3">
@@ -11333,7 +10792,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="247" spans="1:22">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>43371</v>
       </c>
@@ -11391,7 +10850,7 @@
       <c r="S247">
         <v>45.6</v>
       </c>
-      <c r="T247" s="2">
+      <c r="T247" s="11">
         <v>2106</v>
       </c>
       <c r="U247" s="3">
@@ -11401,7 +10860,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="248" spans="1:22">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>43378</v>
       </c>
@@ -11457,9 +10916,9 @@
         <v>4.8</v>
       </c>
       <c r="S248">
-        <v>40.8</v>
-      </c>
-      <c r="T248" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="T248" s="11">
         <v>2101</v>
       </c>
       <c r="U248" s="3">
@@ -11469,7 +10928,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="249" spans="1:22">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>43385</v>
       </c>
@@ -11501,13 +10960,13 @@
         <v>23.6</v>
       </c>
       <c r="K249">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L249">
         <v>3.3</v>
       </c>
       <c r="M249">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N249" s="2">
         <v>0</v>
@@ -11527,7 +10986,7 @@
       <c r="S249">
         <v>36</v>
       </c>
-      <c r="T249" s="2">
+      <c r="T249" s="11">
         <v>2125</v>
       </c>
       <c r="U249" s="3">
@@ -11537,7 +10996,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="250" spans="1:22">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>43392</v>
       </c>
@@ -11563,7 +11022,7 @@
         <v>8.6</v>
       </c>
       <c r="I250" s="3">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J250" s="4">
         <v>23.5</v>
@@ -11590,12 +11049,12 @@
         <v>0</v>
       </c>
       <c r="R250">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S250">
         <v>31.1</v>
       </c>
-      <c r="T250" s="2">
+      <c r="T250" s="11">
         <v>2139</v>
       </c>
       <c r="U250" s="3">
@@ -11605,7 +11064,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="251" spans="1:22">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>43399</v>
       </c>
@@ -11628,16 +11087,16 @@
         <v>0.2</v>
       </c>
       <c r="H251" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I251" s="3">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J251" s="4">
         <v>23.5</v>
       </c>
       <c r="K251">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L251">
         <v>3.9</v>
@@ -11658,12 +11117,12 @@
         <v>0</v>
       </c>
       <c r="R251">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S251">
         <v>26.2</v>
       </c>
-      <c r="T251" s="2">
+      <c r="T251" s="11">
         <v>2154</v>
       </c>
       <c r="U251" s="3">
@@ -11673,7 +11132,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="252" spans="1:22">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>43406</v>
       </c>
@@ -11684,7 +11143,7 @@
         <v>24.4</v>
       </c>
       <c r="D252" s="4">
-        <v>65.9</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11702,7 +11161,7 @@
         <v>7.6</v>
       </c>
       <c r="J252" s="4">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="K252">
         <v>0</v>
@@ -11731,7 +11190,7 @@
       <c r="S252">
         <v>22.9</v>
       </c>
-      <c r="T252" s="2">
+      <c r="T252" s="11">
         <v>2171</v>
       </c>
       <c r="U252" s="3">
@@ -11741,7 +11200,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="253" spans="1:22">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>43413</v>
       </c>
@@ -11767,7 +11226,7 @@
         <v>1.3</v>
       </c>
       <c r="I253" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J253" s="4">
         <v>14.6</v>
@@ -11799,7 +11258,7 @@
       <c r="S253">
         <v>19.7</v>
       </c>
-      <c r="T253" s="2">
+      <c r="T253" s="11">
         <v>2255</v>
       </c>
       <c r="U253" s="3">
@@ -11809,7 +11268,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="254" spans="1:22">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>43420</v>
       </c>
@@ -11856,7 +11315,7 @@
         <v>0.5</v>
       </c>
       <c r="P254" s="4">
-        <v>0.699999999999999</v>
+        <v>0.69999999999999896</v>
       </c>
       <c r="Q254">
         <v>0</v>
@@ -11867,7 +11326,7 @@
       <c r="S254">
         <v>17</v>
       </c>
-      <c r="T254" s="2">
+      <c r="T254" s="11">
         <v>2166</v>
       </c>
       <c r="U254" s="3">
@@ -11877,7 +11336,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="255" spans="1:22">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>43427</v>
       </c>
@@ -11924,7 +11383,7 @@
         <v>0.3</v>
       </c>
       <c r="P255" s="4">
-        <v>0.399999999999999</v>
+        <v>0.39999999999999902</v>
       </c>
       <c r="Q255">
         <v>0</v>
@@ -11935,7 +11394,7 @@
       <c r="S255">
         <v>15.1</v>
       </c>
-      <c r="T255" s="2">
+      <c r="T255" s="11">
         <v>2147</v>
       </c>
       <c r="U255" s="3">
@@ -11945,18 +11404,18 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="256" spans="1:22">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>43434</v>
       </c>
       <c r="B256" s="2">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="C256" s="3">
         <v>25.7</v>
       </c>
       <c r="D256" s="4">
-        <v>79.6</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -11974,7 +11433,7 @@
         <v>6.4</v>
       </c>
       <c r="J256" s="4">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="K256">
         <v>0</v>
@@ -11992,7 +11451,7 @@
         <v>0.3</v>
       </c>
       <c r="P256" s="4">
-        <v>0.0999999999999991</v>
+        <v>9.9999999999999103E-2</v>
       </c>
       <c r="Q256">
         <v>0</v>
@@ -12003,7 +11462,7 @@
       <c r="S256">
         <v>12.6</v>
       </c>
-      <c r="T256" s="2">
+      <c r="T256" s="11">
         <v>2148</v>
       </c>
       <c r="U256" s="3">
@@ -12013,7 +11472,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="257" spans="1:22">
+    <row r="257" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>43441</v>
       </c>
@@ -12033,7 +11492,7 @@
         <v>0.6</v>
       </c>
       <c r="G257">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H257" s="2">
         <v>11.8</v>
@@ -12060,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="P257" s="4">
-        <v>0.0999999999999991</v>
+        <v>9.9999999999999103E-2</v>
       </c>
       <c r="Q257">
         <v>0</v>
@@ -12071,7 +11530,7 @@
       <c r="S257">
         <v>10.7</v>
       </c>
-      <c r="T257" s="2">
+      <c r="T257" s="11">
         <v>2193</v>
       </c>
       <c r="U257" s="3">
@@ -12081,7 +11540,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="258" spans="1:22">
+    <row r="258" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>43448</v>
       </c>
@@ -12092,7 +11551,7 @@
         <v>25.2</v>
       </c>
       <c r="D258" s="4">
-        <v>69.9</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -12107,13 +11566,13 @@
         <v>12.1</v>
       </c>
       <c r="I258" s="3">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J258" s="4">
         <v>29.7</v>
       </c>
       <c r="K258">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L258">
         <v>3.8</v>
@@ -12128,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="P258" s="4">
-        <v>0.0999999999999991</v>
+        <v>9.9999999999999103E-2</v>
       </c>
       <c r="Q258">
         <v>0</v>
@@ -12137,16 +11596,16 @@
         <v>1.5</v>
       </c>
       <c r="S258">
-        <v>9.2</v>
-      </c>
-      <c r="T258" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T258" s="11">
         <v>2199</v>
       </c>
       <c r="V258" s="4">
         <v>1950</v>
       </c>
     </row>
-    <row r="259" spans="1:22">
+    <row r="259" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>43455</v>
       </c>
@@ -12178,7 +11637,7 @@
         <v>19.7</v>
       </c>
       <c r="K259">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L259">
         <v>4</v>
@@ -12195,14 +11654,14 @@
       <c r="S259">
         <v>7.6</v>
       </c>
-      <c r="T259" s="2">
+      <c r="T259" s="11">
         <v>2171</v>
       </c>
       <c r="V259" s="4">
         <v>1920</v>
       </c>
     </row>
-    <row r="260" spans="1:22">
+    <row r="260" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>43462</v>
       </c>
@@ -12213,7 +11672,7 @@
         <v>28.8</v>
       </c>
       <c r="D260" s="4">
-        <v>76.4</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="E260">
         <v>5.2</v>
@@ -12225,13 +11684,13 @@
         <v>8.1</v>
       </c>
       <c r="H260" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I260" s="3">
         <v>6.2</v>
       </c>
       <c r="J260" s="4">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="K260">
         <v>4.3</v>
@@ -12246,24 +11705,24 @@
         <v>0</v>
       </c>
       <c r="R260">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S260">
         <v>6.5</v>
       </c>
-      <c r="T260" s="2">
+      <c r="T260" s="11">
         <v>2146</v>
       </c>
       <c r="V260" s="4">
         <v>1900</v>
       </c>
     </row>
-    <row r="261" spans="1:22">
+    <row r="261" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>43469</v>
       </c>
       <c r="B261" s="2">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="C261" s="3">
         <v>28.2</v>
@@ -12290,7 +11749,7 @@
         <v>19.2</v>
       </c>
       <c r="K261">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L261">
         <v>4.3</v>
@@ -12307,19 +11766,19 @@
       <c r="S261">
         <v>5.6</v>
       </c>
-      <c r="T261" s="2">
+      <c r="T261" s="11">
         <v>2183</v>
       </c>
       <c r="V261" s="4">
         <v>1890</v>
       </c>
     </row>
-    <row r="262" spans="1:22">
+    <row r="262" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>43476</v>
       </c>
       <c r="B262" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="C262" s="3">
         <v>30.1</v>
@@ -12337,16 +11796,16 @@
         <v>6.4</v>
       </c>
       <c r="H262" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I262" s="3">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J262" s="4">
         <v>19.8</v>
       </c>
       <c r="K262">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L262">
         <v>4.3</v>
@@ -12363,14 +11822,14 @@
       <c r="S262">
         <v>4.3</v>
       </c>
-      <c r="T262" s="2">
+      <c r="T262" s="11">
         <v>2149</v>
       </c>
       <c r="V262" s="4">
         <v>1890</v>
       </c>
     </row>
-    <row r="263" spans="1:22">
+    <row r="263" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>43483</v>
       </c>
@@ -12378,7 +11837,7 @@
         <v>29.9</v>
       </c>
       <c r="C263" s="3">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="D263" s="4">
         <v>54.8</v>
@@ -12399,10 +11858,10 @@
         <v>10.1</v>
       </c>
       <c r="J263" s="4">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K263">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L263">
         <v>5</v>
@@ -12419,14 +11878,14 @@
       <c r="S263">
         <v>2.7</v>
       </c>
-      <c r="T263" s="2">
+      <c r="T263" s="11">
         <v>2156</v>
       </c>
       <c r="V263" s="4">
         <v>1900</v>
       </c>
     </row>
-    <row r="264" spans="1:22">
+    <row r="264" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>43490</v>
       </c>
@@ -12475,14 +11934,14 @@
       <c r="S264">
         <v>1.8</v>
       </c>
-      <c r="T264" s="2">
+      <c r="T264" s="11">
         <v>2153</v>
       </c>
       <c r="V264" s="4">
         <v>1915</v>
       </c>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>43497</v>
       </c>
@@ -12532,7 +11991,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="266" spans="1:22">
+    <row r="266" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>43504</v>
       </c>
@@ -12581,14 +12040,14 @@
       <c r="S266">
         <v>1.2</v>
       </c>
-      <c r="T266" s="2">
+      <c r="T266" s="11">
         <v>2120</v>
       </c>
       <c r="V266" s="4">
         <v>1915</v>
       </c>
     </row>
-    <row r="267" spans="1:22">
+    <row r="267" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>43511</v>
       </c>
@@ -12635,16 +12094,16 @@
         <v>0.1</v>
       </c>
       <c r="S267">
-        <v>1.1</v>
-      </c>
-      <c r="T267" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T267" s="11">
         <v>2125</v>
       </c>
       <c r="V267" s="4">
         <v>1915</v>
       </c>
     </row>
-    <row r="268" spans="1:22">
+    <row r="268" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>43518</v>
       </c>
@@ -12679,7 +12138,7 @@
         <v>5.2</v>
       </c>
       <c r="L268">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M268">
         <v>14.5</v>
@@ -12693,14 +12152,14 @@
       <c r="S268">
         <v>0.3</v>
       </c>
-      <c r="T268" s="2">
+      <c r="T268" s="11">
         <v>2114</v>
       </c>
       <c r="V268" s="4">
         <v>1915</v>
       </c>
     </row>
-    <row r="269" spans="1:22">
+    <row r="269" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>43525</v>
       </c>
@@ -12723,7 +12182,7 @@
         <v>6.9</v>
       </c>
       <c r="H269" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I269" s="3">
         <v>8.1</v>
@@ -12749,7 +12208,7 @@
       <c r="S269">
         <v>0</v>
       </c>
-      <c r="T269" s="2">
+      <c r="T269" s="11">
         <v>2066</v>
       </c>
       <c r="U269" s="3">
@@ -12759,12 +12218,12 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="270" spans="1:22">
+    <row r="270" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>43532</v>
       </c>
       <c r="B270" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C270" s="3">
         <v>15.2</v>
@@ -12788,7 +12247,7 @@
         <v>7.5</v>
       </c>
       <c r="J270" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="K270">
         <v>0</v>
@@ -12808,7 +12267,7 @@
       <c r="S270">
         <v>0</v>
       </c>
-      <c r="T270" s="2">
+      <c r="T270" s="11">
         <v>2036</v>
       </c>
       <c r="U270" s="3">
@@ -12818,7 +12277,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>43539</v>
       </c>
@@ -12858,19 +12317,19 @@
       <c r="M271">
         <v>9</v>
       </c>
-      <c r="T271" s="2">
+      <c r="T271" s="11">
         <v>2046</v>
       </c>
       <c r="U271" s="3">
         <v>2163</v>
       </c>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>43546</v>
       </c>
       <c r="B272" s="2">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C272" s="3">
         <v>24.4</v>
@@ -12885,7 +12344,7 @@
         <v>2.7</v>
       </c>
       <c r="G272">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H272" s="2">
         <v>10</v>
@@ -12905,19 +12364,19 @@
       <c r="M272">
         <v>5.7</v>
       </c>
-      <c r="T272" s="2">
+      <c r="T272" s="11">
         <v>2046</v>
       </c>
       <c r="U272" s="3">
         <v>2157</v>
       </c>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>43553</v>
       </c>
       <c r="B273" s="2">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="C273" s="3">
         <v>18.5</v>
@@ -12953,14 +12412,14 @@
       <c r="M273">
         <v>12.4</v>
       </c>
-      <c r="T273" s="2">
+      <c r="T273" s="11">
         <v>2046</v>
       </c>
       <c r="U273" s="3">
         <v>2097</v>
       </c>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>43560</v>
       </c>
@@ -12980,7 +12439,7 @@
         <v>3</v>
       </c>
       <c r="G274">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H274" s="2">
         <v>3.1</v>
@@ -13000,14 +12459,14 @@
       <c r="M274">
         <v>14</v>
       </c>
-      <c r="T274" s="2">
+      <c r="T274" s="11">
         <v>2046</v>
       </c>
       <c r="U274" s="3">
         <v>2069</v>
       </c>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>43567</v>
       </c>
@@ -13046,16 +12505,16 @@
         <v>3.1</v>
       </c>
       <c r="M275">
-        <v>18.9</v>
-      </c>
-      <c r="T275" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="T275" s="11">
         <v>2018</v>
       </c>
       <c r="U275" s="3">
         <v>2071</v>
       </c>
     </row>
-    <row r="276" spans="1:22">
+    <row r="276" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>43574</v>
       </c>
@@ -13063,7 +12522,7 @@
         <v>11.2</v>
       </c>
       <c r="C276" s="3">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D276" s="4">
         <f t="shared" si="0"/>
@@ -13079,7 +12538,7 @@
         <v>28.2</v>
       </c>
       <c r="H276" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I276" s="3">
         <v>7.1</v>
@@ -13105,29 +12564,29 @@
       <c r="S276">
         <v>1</v>
       </c>
-      <c r="T276" s="2">
+      <c r="T276" s="11">
         <v>1989</v>
       </c>
       <c r="U276" s="3">
         <v>2068</v>
       </c>
       <c r="V276" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="277" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="277" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>43581</v>
       </c>
       <c r="B277" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C277" s="3">
         <v>21.4</v>
       </c>
       <c r="D277" s="4">
         <f t="shared" si="0"/>
-        <v>73.8</v>
+        <v>73.800000000000011</v>
       </c>
       <c r="E277">
         <v>24.5</v>
@@ -13142,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="I277" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J277" s="4">
         <v>16.2</v>
@@ -13165,17 +12624,17 @@
       <c r="S277">
         <v>1</v>
       </c>
-      <c r="T277" s="2">
+      <c r="T277" s="11">
         <v>1949</v>
       </c>
       <c r="U277" s="3">
         <v>2146</v>
       </c>
       <c r="V277" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="278" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="278" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>43588</v>
       </c>
@@ -13187,7 +12646,7 @@
       </c>
       <c r="D278" s="4">
         <f t="shared" si="0"/>
-        <v>65.5</v>
+        <v>65.500000000000014</v>
       </c>
       <c r="E278">
         <v>8.5</v>
@@ -13211,7 +12670,7 @@
         <v>0</v>
       </c>
       <c r="L278">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M278">
         <v>12</v>
@@ -13225,17 +12684,17 @@
       <c r="S278">
         <v>1</v>
       </c>
-      <c r="T278" s="2">
+      <c r="T278" s="11">
         <v>1969</v>
       </c>
       <c r="U278" s="3">
         <v>2150</v>
       </c>
       <c r="V278" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="279" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="279" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>43595</v>
       </c>
@@ -13247,7 +12706,7 @@
       </c>
       <c r="D279" s="4">
         <f t="shared" si="0"/>
-        <v>61.2</v>
+        <v>61.200000000000017</v>
       </c>
       <c r="E279">
         <v>10.5</v>
@@ -13288,17 +12747,17 @@
       <c r="S279">
         <v>5.2</v>
       </c>
-      <c r="T279" s="2">
+      <c r="T279" s="11">
         <v>1966</v>
       </c>
       <c r="U279" s="8">
         <v>2130</v>
       </c>
       <c r="V279" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="280" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="280" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>43602</v>
       </c>
@@ -13306,11 +12765,11 @@
         <v>20.6</v>
       </c>
       <c r="C280" s="3">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D280" s="4">
         <f t="shared" si="0"/>
-        <v>64.2</v>
+        <v>64.200000000000017</v>
       </c>
       <c r="E280">
         <v>2.8</v>
@@ -13320,7 +12779,7 @@
       </c>
       <c r="G280">
         <f t="shared" si="1"/>
-        <v>43.2</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="H280" s="2">
         <v>0</v>
@@ -13330,7 +12789,7 @@
       </c>
       <c r="J280" s="4">
         <f>J279+H280-I280</f>
-        <v>18.7</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="K280">
         <v>5</v>
@@ -13351,17 +12810,17 @@
       <c r="S280">
         <v>5.2</v>
       </c>
-      <c r="T280" s="2">
+      <c r="T280" s="11">
         <v>2086</v>
       </c>
       <c r="U280" s="3">
         <v>2190</v>
       </c>
       <c r="V280" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="281" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="281" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>43609</v>
       </c>
@@ -13373,7 +12832,7 @@
       </c>
       <c r="D281" s="4">
         <f t="shared" si="0"/>
-        <v>69.8</v>
+        <v>69.800000000000011</v>
       </c>
       <c r="E281">
         <v>6.7</v>
@@ -13393,7 +12852,7 @@
       </c>
       <c r="J281" s="4">
         <f>J280+H281-I281</f>
-        <v>13.9</v>
+        <v>13.900000000000002</v>
       </c>
       <c r="K281">
         <v>2</v>
@@ -13414,17 +12873,17 @@
       <c r="S281">
         <v>5.2</v>
       </c>
-      <c r="T281" s="2">
+      <c r="T281" s="11">
         <v>2142</v>
       </c>
       <c r="U281" s="3">
         <v>2189</v>
       </c>
       <c r="V281" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="282" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="282" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>43616</v>
       </c>
@@ -13436,7 +12895,7 @@
       </c>
       <c r="D282" s="4">
         <f t="shared" si="0"/>
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E282">
         <v>6</v>
@@ -13456,7 +12915,7 @@
       </c>
       <c r="J282" s="4">
         <f>J281+H282-I282</f>
-        <v>16.9</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="K282">
         <v>5</v>
@@ -13477,22 +12936,22 @@
       <c r="S282">
         <v>4.7</v>
       </c>
-      <c r="T282" s="2">
+      <c r="T282" s="11">
         <v>2352</v>
       </c>
       <c r="U282" s="3">
         <v>2450</v>
       </c>
       <c r="V282" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="283" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="283" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>43622</v>
       </c>
       <c r="B283" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C283" s="3">
         <v>13</v>
@@ -13509,7 +12968,7 @@
       </c>
       <c r="G283">
         <f t="shared" si="1"/>
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -13519,7 +12978,7 @@
       </c>
       <c r="J283" s="4">
         <f>J282+H283-I283</f>
-        <v>13.8</v>
+        <v>13.800000000000002</v>
       </c>
       <c r="K283">
         <v>5</v>
@@ -13540,17 +12999,17 @@
       <c r="S283">
         <v>4</v>
       </c>
-      <c r="T283" s="2">
+      <c r="T283" s="11">
         <v>2269</v>
       </c>
       <c r="U283" s="3">
         <v>2352</v>
       </c>
       <c r="V283" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="284" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="284" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>43630</v>
       </c>
@@ -13562,7 +13021,7 @@
       </c>
       <c r="D284" s="4">
         <f t="shared" si="0"/>
-        <v>93.8</v>
+        <v>93.800000000000011</v>
       </c>
       <c r="E284">
         <v>11.5</v>
@@ -13572,7 +13031,7 @@
       </c>
       <c r="G284">
         <f t="shared" si="1"/>
-        <v>47.1</v>
+        <v>47.099999999999994</v>
       </c>
       <c r="H284" s="2">
         <v>0</v>
@@ -13601,17 +13060,17 @@
       <c r="S284">
         <v>3.4</v>
       </c>
-      <c r="T284" s="2">
+      <c r="T284" s="11">
         <v>2368</v>
       </c>
       <c r="U284" s="3">
         <v>2401</v>
       </c>
       <c r="V284" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="285" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="285" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>43637</v>
       </c>
@@ -13623,7 +13082,7 @@
       </c>
       <c r="D285" s="4">
         <f t="shared" si="0"/>
-        <v>89.7</v>
+        <v>89.700000000000017</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -13633,7 +13092,7 @@
       </c>
       <c r="G285">
         <f t="shared" si="1"/>
-        <v>37.6</v>
+        <v>37.599999999999994</v>
       </c>
       <c r="H285" s="2">
         <v>3</v>
@@ -13664,29 +13123,29 @@
       <c r="S285">
         <v>2.7</v>
       </c>
-      <c r="T285" s="2">
+      <c r="T285" s="11">
         <v>2416</v>
       </c>
       <c r="U285" s="3">
         <v>2426</v>
       </c>
       <c r="V285" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="286" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="286" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>43644</v>
       </c>
       <c r="B286" s="2">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C286" s="3">
         <v>11.1</v>
       </c>
       <c r="D286" s="4">
         <f t="shared" si="0"/>
-        <v>80.8</v>
+        <v>80.800000000000026</v>
       </c>
       <c r="E286">
         <v>5.3</v>
@@ -13696,7 +13155,7 @@
       </c>
       <c r="G286">
         <f t="shared" si="1"/>
-        <v>37.1</v>
+        <v>37.099999999999994</v>
       </c>
       <c r="K286">
         <v>0</v>
@@ -13717,29 +13176,29 @@
       <c r="S286">
         <v>4</v>
       </c>
-      <c r="T286" s="2">
+      <c r="T286" s="11">
         <v>2395</v>
       </c>
       <c r="U286" s="3">
         <v>2344</v>
       </c>
       <c r="V286" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="287" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="287" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>43651</v>
       </c>
       <c r="B287" s="2">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C287" s="3">
         <v>10.8</v>
       </c>
       <c r="D287" s="4">
         <f t="shared" si="0"/>
-        <v>74.6</v>
+        <v>74.600000000000023</v>
       </c>
       <c r="E287">
         <v>2</v>
@@ -13749,10 +13208,10 @@
       </c>
       <c r="G287">
         <f t="shared" si="1"/>
-        <v>33.7</v>
+        <v>33.699999999999996</v>
       </c>
       <c r="H287" s="2">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I287" s="3">
         <v>3.1</v>
@@ -13768,7 +13227,7 @@
       </c>
       <c r="M287">
         <f t="shared" si="2"/>
-        <v>14.2</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="N287" s="2">
         <v>5.9</v>
@@ -13789,17 +13248,17 @@
         <f t="shared" ref="S287:S294" si="3">S286+Q287-R287</f>
         <v>3.6</v>
       </c>
-      <c r="T287" s="2">
+      <c r="T287" s="11">
         <v>2389</v>
       </c>
       <c r="U287" s="3">
         <v>2278</v>
       </c>
       <c r="V287" s="4">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="288" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="288" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>43658</v>
       </c>
@@ -13811,17 +13270,17 @@
       </c>
       <c r="D288" s="4">
         <f t="shared" si="0"/>
-        <v>64.1</v>
+        <v>64.100000000000023</v>
       </c>
       <c r="E288" s="2">
         <v>5.8</v>
       </c>
       <c r="F288" s="3">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G288">
         <f t="shared" si="1"/>
-        <v>31.2</v>
+        <v>31.199999999999992</v>
       </c>
       <c r="H288" s="2">
         <v>3</v>
@@ -13841,7 +13300,7 @@
       </c>
       <c r="M288">
         <f t="shared" si="2"/>
-        <v>12.1</v>
+        <v>12.100000000000001</v>
       </c>
       <c r="N288" s="2">
         <v>0</v>
@@ -13862,17 +13321,17 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="T288" s="2">
+      <c r="T288" s="11">
         <v>2452</v>
       </c>
       <c r="U288" s="3">
         <v>2240</v>
       </c>
       <c r="V288" s="4">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="289" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>43665</v>
       </c>
@@ -13884,7 +13343,7 @@
       </c>
       <c r="D289" s="4">
         <f t="shared" si="0"/>
-        <v>55.9</v>
+        <v>55.900000000000027</v>
       </c>
       <c r="E289">
         <v>5.3</v>
@@ -13894,13 +13353,13 @@
       </c>
       <c r="G289">
         <f t="shared" si="1"/>
-        <v>29.4</v>
+        <v>29.399999999999991</v>
       </c>
       <c r="H289" s="2">
         <v>0</v>
       </c>
       <c r="I289" s="3">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J289" s="4">
         <f t="shared" si="4"/>
@@ -13914,7 +13373,7 @@
       </c>
       <c r="M289">
         <f t="shared" si="2"/>
-        <v>9.5</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="N289" s="2">
         <v>0</v>
@@ -13935,29 +13394,29 @@
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="T289" s="2">
+      <c r="T289" s="11">
         <v>2379</v>
       </c>
       <c r="U289" s="3">
         <v>2278</v>
       </c>
       <c r="V289" s="4">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="290" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>43672</v>
       </c>
       <c r="B290" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C290" s="3">
         <v>17.5</v>
       </c>
       <c r="D290" s="4">
         <f t="shared" si="0"/>
-        <v>43.3</v>
+        <v>43.300000000000026</v>
       </c>
       <c r="E290">
         <v>3.5</v>
@@ -13967,17 +13426,17 @@
       </c>
       <c r="G290">
         <f t="shared" si="1"/>
-        <v>27.1</v>
+        <v>27.099999999999991</v>
       </c>
       <c r="H290" s="2">
         <v>5.2</v>
       </c>
       <c r="I290" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J290" s="4">
         <f t="shared" si="4"/>
-        <v>7.3</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="K290">
         <v>0</v>
@@ -13987,7 +13446,7 @@
       </c>
       <c r="M290">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>6.6000000000000014</v>
       </c>
       <c r="N290" s="2">
         <v>6</v>
@@ -14009,17 +13468,17 @@
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="T290" s="2">
+      <c r="T290" s="11">
         <v>2387</v>
       </c>
       <c r="U290" s="3">
         <v>2449</v>
       </c>
       <c r="V290" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="291" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>43679</v>
       </c>
@@ -14031,17 +13490,17 @@
       </c>
       <c r="D291" s="4">
         <f t="shared" si="0"/>
-        <v>35.4</v>
+        <v>35.400000000000027</v>
       </c>
       <c r="E291">
         <v>1</v>
       </c>
       <c r="F291">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G291">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22.999999999999993</v>
       </c>
       <c r="H291" s="2">
         <v>2.5</v>
@@ -14051,7 +13510,7 @@
       </c>
       <c r="J291" s="4">
         <f t="shared" si="4"/>
-        <v>6.1</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="K291">
         <v>0</v>
@@ -14061,7 +13520,7 @@
       </c>
       <c r="M291">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>4.0000000000000018</v>
       </c>
       <c r="N291" s="2">
         <v>0</v>
@@ -14081,19 +13540,19 @@
       </c>
       <c r="S291">
         <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="T291" s="2">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="T291" s="11">
         <v>2315</v>
       </c>
       <c r="U291" s="3">
         <v>2381</v>
       </c>
       <c r="V291" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="292" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>43686</v>
       </c>
@@ -14101,11 +13560,11 @@
         <v>6.9</v>
       </c>
       <c r="C292" s="3">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D292" s="4">
         <f t="shared" si="0"/>
-        <v>22.4</v>
+        <v>22.400000000000027</v>
       </c>
       <c r="E292">
         <v>4</v>
@@ -14115,27 +13574,27 @@
       </c>
       <c r="G292">
         <f t="shared" si="1"/>
-        <v>21.2</v>
+        <v>21.199999999999992</v>
       </c>
       <c r="H292" s="2">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I292" s="3">
         <v>3.1</v>
       </c>
       <c r="J292" s="4">
         <f t="shared" si="4"/>
-        <v>13.2</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="K292">
         <v>5.3</v>
       </c>
       <c r="L292">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M292">
         <f t="shared" si="2"/>
-        <v>7.1</v>
+        <v>7.1000000000000005</v>
       </c>
       <c r="N292" s="2">
         <v>0</v>
@@ -14155,19 +13614,19 @@
       </c>
       <c r="S292">
         <f t="shared" si="3"/>
-        <v>0.7</v>
-      </c>
-      <c r="T292" s="2">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="T292" s="11">
         <v>2366</v>
       </c>
       <c r="U292" s="3">
         <v>2421</v>
       </c>
       <c r="V292" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="293" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>43693</v>
       </c>
@@ -14175,11 +13634,11 @@
         <v>5</v>
       </c>
       <c r="C293" s="3">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D293" s="4">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>11.000000000000028</v>
       </c>
       <c r="E293">
         <v>0</v>
@@ -14189,7 +13648,7 @@
       </c>
       <c r="G293">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15.999999999999993</v>
       </c>
       <c r="H293" s="2">
         <v>0</v>
@@ -14199,7 +13658,7 @@
       </c>
       <c r="J293" s="4">
         <f t="shared" si="4"/>
-        <v>8.7</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="K293">
         <v>1</v>
@@ -14209,7 +13668,7 @@
       </c>
       <c r="M293">
         <f t="shared" si="2"/>
-        <v>5.2</v>
+        <v>5.2000000000000011</v>
       </c>
       <c r="N293" s="2">
         <v>0</v>
@@ -14229,19 +13688,19 @@
       </c>
       <c r="S293">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="T293" s="2">
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="T293" s="11">
         <v>2166</v>
       </c>
       <c r="U293" s="3">
         <v>2265</v>
       </c>
       <c r="V293" s="4">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="294" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>43700</v>
       </c>
@@ -14253,7 +13712,7 @@
       </c>
       <c r="D294" s="4">
         <f t="shared" si="0"/>
-        <v>17.1</v>
+        <v>17.10000000000003</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -14263,27 +13722,27 @@
       </c>
       <c r="G294">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11.999999999999993</v>
       </c>
       <c r="H294" s="2">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I294" s="3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J294" s="4">
         <f t="shared" si="4"/>
-        <v>9.5</v>
+        <v>9.5000000000000018</v>
       </c>
       <c r="K294">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L294">
         <v>2.8</v>
       </c>
       <c r="M294">
         <f t="shared" si="2"/>
-        <v>4.6</v>
+        <v>4.6000000000000014</v>
       </c>
       <c r="N294" s="2">
         <v>5.8</v>
@@ -14293,7 +13752,7 @@
       </c>
       <c r="P294" s="4">
         <f>P293+N294-O294</f>
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="Q294">
         <v>0</v>
@@ -14303,19 +13762,19 @@
       </c>
       <c r="S294">
         <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="T294" s="2">
+        <v>0.20000000000000023</v>
+      </c>
+      <c r="T294" s="11">
         <v>2208</v>
       </c>
       <c r="U294" s="3">
         <v>2278</v>
       </c>
       <c r="V294" s="4">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="295" spans="1:21">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>43707</v>
       </c>
@@ -14327,17 +13786,17 @@
       </c>
       <c r="D295" s="4">
         <f t="shared" si="0"/>
-        <v>29.9</v>
+        <v>29.900000000000034</v>
       </c>
       <c r="E295">
         <v>0</v>
       </c>
       <c r="F295">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G295">
         <f t="shared" si="1"/>
-        <v>7.9</v>
+        <v>7.8999999999999932</v>
       </c>
       <c r="H295" s="2">
         <v>7.9</v>
@@ -14347,16 +13806,19 @@
       </c>
       <c r="J295" s="4">
         <f t="shared" si="4"/>
-        <v>11.1</v>
-      </c>
-      <c r="T295" s="2">
+        <v>11.100000000000001</v>
+      </c>
+      <c r="T295" s="11">
         <v>2228</v>
       </c>
       <c r="U295" s="3">
         <v>2275</v>
       </c>
-    </row>
-    <row r="296" spans="1:22">
+      <c r="V295" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>43714</v>
       </c>
@@ -14368,7 +13830,7 @@
       </c>
       <c r="D296" s="4">
         <f t="shared" si="0"/>
-        <v>33.6</v>
+        <v>33.600000000000037</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -14378,17 +13840,17 @@
       </c>
       <c r="G296">
         <f t="shared" si="1"/>
-        <v>5.9</v>
+        <v>5.8999999999999932</v>
       </c>
       <c r="H296" s="2">
         <v>0</v>
       </c>
       <c r="I296" s="3">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J296" s="4">
         <f t="shared" si="4"/>
-        <v>6.5</v>
+        <v>6.5000000000000018</v>
       </c>
       <c r="K296">
         <v>11</v>
@@ -14406,7 +13868,7 @@
         <v>0.8</v>
       </c>
       <c r="P296" s="4">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q296">
         <v>6.6</v>
@@ -14417,17 +13879,17 @@
       <c r="S296">
         <v>26.8</v>
       </c>
-      <c r="T296" s="2">
+      <c r="T296" s="11">
         <v>2067</v>
       </c>
       <c r="U296" s="3">
         <v>2224</v>
       </c>
       <c r="V296" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="297" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>43728</v>
       </c>
@@ -14485,17 +13947,17 @@
       <c r="S297">
         <v>45.7</v>
       </c>
-      <c r="T297" s="2">
+      <c r="T297" s="11">
         <v>2231</v>
       </c>
       <c r="U297" s="3">
         <v>2282</v>
       </c>
       <c r="V297" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="298" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>43735</v>
       </c>
@@ -14527,7 +13989,7 @@
       </c>
       <c r="J298" s="4">
         <f>J297+H298-I298</f>
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K298">
         <v>6.7</v>
@@ -14553,23 +14015,23 @@
         <v>0</v>
       </c>
       <c r="R298">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S298">
         <f>S297+Q298-R298</f>
         <v>37</v>
       </c>
-      <c r="T298" s="2">
+      <c r="T298" s="11">
         <v>2229</v>
       </c>
       <c r="U298" s="3">
         <v>2318</v>
       </c>
       <c r="V298" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="299" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>43749</v>
       </c>
@@ -14601,7 +14063,7 @@
         <v>4.7</v>
       </c>
       <c r="K299">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L299">
         <v>1.6</v>
@@ -14627,17 +14089,17 @@
       <c r="S299">
         <v>45.3</v>
       </c>
-      <c r="T299" s="2">
+      <c r="T299" s="11">
         <v>2259</v>
       </c>
       <c r="U299" s="3">
         <v>2401</v>
       </c>
       <c r="V299" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="300" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>43756</v>
       </c>
@@ -14648,7 +14110,7 @@
         <v>15</v>
       </c>
       <c r="D300" s="4">
-        <f>D299+B300-C300</f>
+        <f t="shared" ref="D300:D305" si="5">D299+B300-C300</f>
         <v>36.1</v>
       </c>
       <c r="E300">
@@ -14658,7 +14120,7 @@
         <v>0.1</v>
       </c>
       <c r="G300">
-        <f>G299+E300-F300</f>
+        <f t="shared" ref="G300:G305" si="6">G299+E300-F300</f>
         <v>5.8</v>
       </c>
       <c r="H300" s="2">
@@ -14678,7 +14140,7 @@
         <v>1.8</v>
       </c>
       <c r="M300">
-        <f>M299+K300-L300</f>
+        <f t="shared" ref="M300:M305" si="7">M299+K300-L300</f>
         <v>11.2</v>
       </c>
       <c r="N300" s="2">
@@ -14688,7 +14150,7 @@
         <v>0.4</v>
       </c>
       <c r="P300" s="4">
-        <f>P299+N300-O300</f>
+        <f t="shared" ref="P300:P305" si="8">P299+N300-O300</f>
         <v>10.6</v>
       </c>
       <c r="Q300">
@@ -14698,22 +14160,22 @@
         <v>6.4</v>
       </c>
       <c r="S300">
-        <f>S299+Q300-R300</f>
+        <f t="shared" ref="S300:S305" si="9">S299+Q300-R300</f>
         <v>45.1</v>
       </c>
-      <c r="T300" s="2">
+      <c r="T300" s="11">
         <v>2346</v>
       </c>
       <c r="U300" s="3">
         <v>2423</v>
       </c>
       <c r="V300" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="301" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
-        <f>A300+7</f>
+        <f t="shared" ref="A301:A311" si="10">A300+7</f>
         <v>43763</v>
       </c>
       <c r="B301" s="2">
@@ -14723,7 +14185,7 @@
         <v>14.1</v>
       </c>
       <c r="D301" s="4">
-        <f>D300+B301-C301</f>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E301">
@@ -14733,7 +14195,7 @@
         <v>0</v>
       </c>
       <c r="G301">
-        <f>G300+E301-F301</f>
+        <f t="shared" si="6"/>
         <v>5.8</v>
       </c>
       <c r="H301" s="2">
@@ -14743,7 +14205,7 @@
         <v>5</v>
       </c>
       <c r="J301" s="4">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -14752,8 +14214,8 @@
         <v>2.8</v>
       </c>
       <c r="M301">
-        <f>M300+K301-L301</f>
-        <v>8.4</v>
+        <f t="shared" si="7"/>
+        <v>8.3999999999999986</v>
       </c>
       <c r="N301" s="2">
         <v>0</v>
@@ -14762,7 +14224,7 @@
         <v>1.6</v>
       </c>
       <c r="P301" s="4">
-        <f>P300+N301-O301</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Q301">
@@ -14772,22 +14234,22 @@
         <v>5.4</v>
       </c>
       <c r="S301">
-        <f>S300+Q301-R301</f>
-        <v>46.3</v>
-      </c>
-      <c r="T301" s="2">
+        <f t="shared" si="9"/>
+        <v>46.300000000000004</v>
+      </c>
+      <c r="T301" s="11">
         <v>2289</v>
       </c>
       <c r="U301" s="3">
         <v>2401</v>
       </c>
       <c r="V301" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="302" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
-        <f>A301+7</f>
+        <f t="shared" si="10"/>
         <v>43770</v>
       </c>
       <c r="B302" s="2">
@@ -14797,7 +14259,7 @@
         <v>12.6</v>
       </c>
       <c r="D302" s="4">
-        <f>D301+B302-C302</f>
+        <f t="shared" si="5"/>
         <v>25.9</v>
       </c>
       <c r="E302">
@@ -14807,18 +14269,18 @@
         <v>0.8</v>
       </c>
       <c r="G302">
-        <f>G301+E302-F302</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="H302" s="2">
         <v>0</v>
       </c>
       <c r="I302" s="3">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J302" s="4">
-        <f>J301+H302-I302</f>
-        <v>3.1</v>
+        <f t="shared" ref="J302:J307" si="11">J301+H302-I302</f>
+        <v>3.0999999999999996</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -14827,8 +14289,8 @@
         <v>2.7</v>
       </c>
       <c r="M302">
-        <f>M301+K302-L302</f>
-        <v>5.7</v>
+        <f t="shared" si="7"/>
+        <v>5.6999999999999984</v>
       </c>
       <c r="N302" s="2">
         <v>0</v>
@@ -14837,7 +14299,7 @@
         <v>0.9</v>
       </c>
       <c r="P302" s="4">
-        <f>P301+N302-O302</f>
+        <f t="shared" si="8"/>
         <v>8.1</v>
       </c>
       <c r="Q302">
@@ -14847,33 +14309,33 @@
         <v>5.4</v>
       </c>
       <c r="S302">
-        <f>S301+Q302-R302</f>
-        <v>43.9</v>
-      </c>
-      <c r="T302" s="2">
+        <f t="shared" si="9"/>
+        <v>43.900000000000006</v>
+      </c>
+      <c r="T302" s="11">
         <v>2303</v>
       </c>
       <c r="U302" s="3">
         <v>2392</v>
       </c>
       <c r="V302" s="4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="303" spans="1:22">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
-        <f>A302+7</f>
+        <f t="shared" si="10"/>
         <v>43777</v>
       </c>
       <c r="B303" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C303" s="3">
         <v>14.2</v>
       </c>
       <c r="D303" s="4">
-        <f>D302+B303-C303</f>
-        <v>24.7</v>
+        <f t="shared" si="5"/>
+        <v>23.7</v>
       </c>
       <c r="E303">
         <v>0</v>
@@ -14882,28 +14344,28 @@
         <v>0.4</v>
       </c>
       <c r="G303">
-        <f>G302+E303-F303</f>
-        <v>4.6</v>
+        <f t="shared" si="6"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H303" s="2">
-        <v>9.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I303" s="3">
         <v>4.7</v>
       </c>
       <c r="J303" s="4">
-        <f>J302+H303-I303</f>
-        <v>8.1</v>
+        <f t="shared" si="11"/>
+        <v>8.0999999999999979</v>
       </c>
       <c r="K303">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L303">
         <v>1.9</v>
       </c>
       <c r="M303">
-        <f>M302+K303-L303</f>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>5.9999999999999982</v>
       </c>
       <c r="N303" s="2">
         <v>0</v>
@@ -14912,32 +14374,637 @@
         <v>1.3</v>
       </c>
       <c r="P303" s="4">
-        <f>P302+N303-O303</f>
+        <f t="shared" si="8"/>
         <v>6.8</v>
       </c>
       <c r="Q303">
         <v>0</v>
       </c>
       <c r="R303">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="S303">
-        <f>S302+Q303-R303</f>
-        <v>38.8</v>
-      </c>
-      <c r="T303" s="2">
+        <f t="shared" si="9"/>
+        <v>38.800000000000004</v>
+      </c>
+      <c r="T303" s="11">
         <v>2243</v>
       </c>
       <c r="U303" s="3">
         <v>2472</v>
       </c>
       <c r="V303" s="4">
-        <v>2020</v>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A304" s="1">
+        <f t="shared" si="10"/>
+        <v>43784</v>
+      </c>
+      <c r="B304" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="C304" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="D304" s="4">
+        <f t="shared" si="5"/>
+        <v>28.299999999999997</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="6"/>
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="H304" s="2">
+        <v>0</v>
+      </c>
+      <c r="I304" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="J304" s="4">
+        <f t="shared" si="11"/>
+        <v>1.9999999999999982</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>2.6</v>
+      </c>
+      <c r="M304">
+        <f t="shared" si="7"/>
+        <v>3.3999999999999981</v>
+      </c>
+      <c r="N304" s="2">
+        <v>0</v>
+      </c>
+      <c r="O304" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P304" s="4">
+        <f t="shared" si="8"/>
+        <v>5.6</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>4.7</v>
+      </c>
+      <c r="S304">
+        <f t="shared" si="9"/>
+        <v>34.1</v>
+      </c>
+      <c r="T304" s="11">
+        <v>2235</v>
+      </c>
+      <c r="U304" s="3">
+        <v>2448</v>
+      </c>
+      <c r="V304" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A305" s="1">
+        <f t="shared" si="10"/>
+        <v>43791</v>
+      </c>
+      <c r="B305" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="C305" s="3">
+        <v>17</v>
+      </c>
+      <c r="D305" s="4">
+        <f t="shared" si="5"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="E305">
+        <v>5.8</v>
+      </c>
+      <c r="F305">
+        <v>0.8</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="6"/>
+        <v>8.4999999999999982</v>
+      </c>
+      <c r="H305" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I305" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J305" s="4">
+        <f t="shared" si="11"/>
+        <v>2.4999999999999982</v>
+      </c>
+      <c r="K305">
+        <v>3</v>
+      </c>
+      <c r="L305">
+        <v>2.4</v>
+      </c>
+      <c r="M305">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999987</v>
+      </c>
+      <c r="N305" s="2">
+        <v>0</v>
+      </c>
+      <c r="O305" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P305" s="4">
+        <f t="shared" si="8"/>
+        <v>4.5</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S305">
+        <f t="shared" si="9"/>
+        <v>29.700000000000003</v>
+      </c>
+      <c r="T305" s="11">
+        <v>2204</v>
+      </c>
+      <c r="U305" s="3">
+        <v>2451</v>
+      </c>
+      <c r="V305" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A306" s="1">
+        <f t="shared" si="10"/>
+        <v>43798</v>
+      </c>
+      <c r="B306" s="2">
+        <v>0</v>
+      </c>
+      <c r="C306" s="3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D306" s="4">
+        <f t="shared" ref="D306:D311" si="12">D305+B306-C306</f>
+        <v>10.199999999999996</v>
+      </c>
+      <c r="E306">
+        <v>11.3</v>
+      </c>
+      <c r="F306">
+        <v>0.6</v>
+      </c>
+      <c r="G306">
+        <f>G305+E306-F306</f>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="H306" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="I306" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J306" s="4">
+        <f t="shared" si="11"/>
+        <v>15.7</v>
+      </c>
+      <c r="K306">
+        <v>2.9</v>
+      </c>
+      <c r="L306">
+        <v>1.4</v>
+      </c>
+      <c r="M306">
+        <f t="shared" ref="M306:M311" si="13">M305+K306-L306</f>
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="N306" s="2">
+        <v>0</v>
+      </c>
+      <c r="O306" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P306" s="4">
+        <f>P305+N306-O306</f>
+        <v>3.6</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>5.4</v>
+      </c>
+      <c r="S306">
+        <f>S305+Q306-R306</f>
+        <v>24.300000000000004</v>
+      </c>
+      <c r="T306" s="11">
+        <v>2208</v>
+      </c>
+      <c r="U306" s="3">
+        <v>2451</v>
+      </c>
+      <c r="V306" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="307" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A307" s="1">
+        <f t="shared" si="10"/>
+        <v>43805</v>
+      </c>
+      <c r="B307" s="2">
+        <v>13.7</v>
+      </c>
+      <c r="C307" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="D307" s="4">
+        <f t="shared" si="12"/>
+        <v>8.6999999999999957</v>
+      </c>
+      <c r="E307">
+        <v>5.3</v>
+      </c>
+      <c r="F307">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G307">
+        <f>G306+E307-F307</f>
+        <v>23.399999999999995</v>
+      </c>
+      <c r="H307" s="2">
+        <v>0</v>
+      </c>
+      <c r="I307" s="8">
+        <v>5</v>
+      </c>
+      <c r="J307" s="4">
+        <f t="shared" si="11"/>
+        <v>10.7</v>
+      </c>
+      <c r="K307" s="8">
+        <v>0</v>
+      </c>
+      <c r="L307" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="M307">
+        <f t="shared" si="13"/>
+        <v>3.0999999999999983</v>
+      </c>
+      <c r="N307" s="2">
+        <v>0</v>
+      </c>
+      <c r="O307" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="P307" s="4">
+        <f>P306+N307-O307</f>
+        <v>2.7</v>
+      </c>
+      <c r="Q307" s="8">
+        <v>0</v>
+      </c>
+      <c r="R307" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="S307">
+        <f>S306+Q307-R307</f>
+        <v>20.900000000000006</v>
+      </c>
+      <c r="T307" s="11">
+        <f>218.51*7.03*1.09*1.01*1.25+100</f>
+        <v>2213.9004284624998</v>
+      </c>
+      <c r="U307" s="8">
+        <v>2455</v>
+      </c>
+      <c r="V307" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="308" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A308" s="1">
+        <f t="shared" si="10"/>
+        <v>43812</v>
+      </c>
+      <c r="B308" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="C308" s="8">
+        <v>14.8</v>
+      </c>
+      <c r="D308" s="4">
+        <f t="shared" si="12"/>
+        <v>15.699999999999996</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>6.3</v>
+      </c>
+      <c r="G308">
+        <f>G307+E308-F308</f>
+        <v>17.099999999999994</v>
+      </c>
+      <c r="H308" s="2">
+        <v>6.9</v>
+      </c>
+      <c r="I308" s="8">
+        <v>6.3</v>
+      </c>
+      <c r="J308" s="4">
+        <f t="shared" ref="J308:J311" si="14">J307+H308-I308</f>
+        <v>11.3</v>
+      </c>
+      <c r="K308" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="L308" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="M308">
+        <f t="shared" si="13"/>
+        <v>2.8999999999999981</v>
+      </c>
+      <c r="N308" s="2">
+        <v>0</v>
+      </c>
+      <c r="O308" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P308" s="4">
+        <f>P307+N308-O308</f>
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="Q308" s="8">
+        <v>0</v>
+      </c>
+      <c r="R308" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S308">
+        <f>S307+Q308-R308</f>
+        <v>16.800000000000004</v>
+      </c>
+      <c r="T308" s="11">
+        <f>216.94*7.03*1.09*1.01*1.25+100</f>
+        <v>2198.7119992250005</v>
+      </c>
+      <c r="U308" s="8">
+        <v>2379</v>
+      </c>
+      <c r="V308" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A309" s="1">
+        <f t="shared" si="10"/>
+        <v>43819</v>
+      </c>
+      <c r="B309" s="2">
+        <v>23.1</v>
+      </c>
+      <c r="C309" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="D309" s="4">
+        <f t="shared" si="12"/>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="E309">
+        <v>5</v>
+      </c>
+      <c r="F309">
+        <v>5.3</v>
+      </c>
+      <c r="G309">
+        <f>G308+E309-F309</f>
+        <v>16.799999999999994</v>
+      </c>
+      <c r="H309" s="2">
+        <v>0</v>
+      </c>
+      <c r="I309" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="J309" s="4">
+        <f t="shared" si="14"/>
+        <v>7.4</v>
+      </c>
+      <c r="K309" s="8">
+        <v>8</v>
+      </c>
+      <c r="L309" s="8">
+        <v>3.3</v>
+      </c>
+      <c r="M309">
+        <f t="shared" si="13"/>
+        <v>7.5999999999999988</v>
+      </c>
+      <c r="N309" s="2">
+        <v>0</v>
+      </c>
+      <c r="O309" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="P309" s="4">
+        <f>P308+N309-O309</f>
+        <v>2.1</v>
+      </c>
+      <c r="Q309" s="8">
+        <v>0</v>
+      </c>
+      <c r="R309" s="8">
+        <v>5</v>
+      </c>
+      <c r="S309">
+        <f>S308+Q309-R309</f>
+        <v>11.800000000000004</v>
+      </c>
+      <c r="T309" s="11">
+        <f>221.38*7.03*1.09*1.01*1.25+100</f>
+        <v>2241.6652640750003</v>
+      </c>
+      <c r="U309" s="8">
+        <v>2318</v>
+      </c>
+      <c r="V309" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="310" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A310" s="1">
+        <f t="shared" si="10"/>
+        <v>43826</v>
+      </c>
+      <c r="B310" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C310" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="D310" s="4">
+        <f t="shared" si="12"/>
+        <v>33.199999999999996</v>
+      </c>
+      <c r="E310" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="F310" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G310">
+        <f>G309+E310-F310</f>
+        <v>17.999999999999993</v>
+      </c>
+      <c r="H310" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="I310" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="J310" s="4">
+        <f t="shared" si="14"/>
+        <v>16.099999999999998</v>
+      </c>
+      <c r="K310" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="L310" s="8">
+        <v>3.43</v>
+      </c>
+      <c r="M310">
+        <f t="shared" si="13"/>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="N310" s="2">
+        <v>0</v>
+      </c>
+      <c r="O310" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="P310" s="4">
+        <f>P309+N310-O310</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="Q310" s="8">
+        <v>0</v>
+      </c>
+      <c r="R310" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S310">
+        <f>S309+Q310-R310</f>
+        <v>9.600000000000005</v>
+      </c>
+      <c r="T310" s="11">
+        <f>221.17*7.03*1.09*1.01*1.25+100</f>
+        <v>2239.6336907375003</v>
+      </c>
+      <c r="U310" s="8">
+        <v>2335</v>
+      </c>
+      <c r="V310" s="4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A311" s="1">
+        <f t="shared" si="10"/>
+        <v>43833</v>
+      </c>
+      <c r="B311" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="C311" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="D311" s="4">
+        <f t="shared" si="12"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E311" s="12">
+        <v>15.5</v>
+      </c>
+      <c r="F311" s="8">
+        <v>5</v>
+      </c>
+      <c r="G311">
+        <v>28.8</v>
+      </c>
+      <c r="H311" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="I311" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="J311" s="4">
+        <f t="shared" si="14"/>
+        <v>20.9</v>
+      </c>
+      <c r="K311" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L311" s="8">
+        <v>3.1</v>
+      </c>
+      <c r="M311">
+        <f t="shared" si="13"/>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="N311" s="2">
+        <v>0</v>
+      </c>
+      <c r="O311" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P311" s="4">
+        <f>P310+N311-O311</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="Q311" s="8">
+        <v>0</v>
+      </c>
+      <c r="R311" s="8">
+        <v>2.1</v>
+      </c>
+      <c r="S311">
+        <f>S310+Q311-R311</f>
+        <v>7.5000000000000053</v>
+      </c>
+      <c r="T311" s="11">
+        <f>224.32*7.03*1.09*1.01*1.25+100</f>
+        <v>2270.1072908000001</v>
+      </c>
+      <c r="U311" s="8">
+        <v>2325</v>
+      </c>
+      <c r="V311" s="4">
+        <v>1740</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>